--- a/русский-рейтинг-llm-в-роулплее.xlsx
+++ b/русский-рейтинг-llm-в-роулплее.xlsx
@@ -217,7 +217,7 @@
     <t>длинный-1 ?</t>
   </si>
   <si>
-    <t>Расскажи о себе: когда родилась, кем работаешь? Про семью и все остальное про твою жизнь. Пожалуйста поподробнее пожалуйста, мне все интересно.</t>
+    <t>Расскажи о себе: когда родилась, кем работаешь? Про семью и все остальное про твою жизнь. Пожалуйста поподробнее, мне все интересно.</t>
   </si>
 </sst>
 </file>
@@ -3856,7 +3856,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3929,7 +3929,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/русский-рейтинг-llm-в-роулплее.xlsx
+++ b/русский-рейтинг-llm-в-роулплее.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="русский-рейтинг-llm-в-роулплее-" sheetId="1" r:id="rId1"/>
-    <sheet name="Легенда" sheetId="3" r:id="rId2"/>
-    <sheet name="русский-рейтинг-llm-в-роулплее" sheetId="4" r:id="rId3"/>
+    <sheet name="русский-рейтинг-llm-в-роулплее" sheetId="6" r:id="rId2"/>
+    <sheet name="Легенда" sheetId="3" r:id="rId3"/>
     <sheet name="фикс токенизатора" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$R$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$S$61</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
   <si>
     <t>temp</t>
   </si>
@@ -160,9 +160,6 @@
     <t>софт:</t>
   </si>
   <si>
-    <t>(отказы и короткие - полбалла, циклы - в бред)</t>
-  </si>
-  <si>
     <t>контекст:</t>
   </si>
   <si>
@@ -218,6 +215,33 @@
   </si>
   <si>
     <t>Расскажи о себе: когда родилась, кем работаешь? Про семью и все остальное про твою жизнь. Пожалуйста поподробнее, мне все интересно.</t>
+  </si>
+  <si>
+    <t>333+777 = 4110</t>
+  </si>
+  <si>
+    <t>333+777? = 4100, it can't solve it, even with --override-kv tokenizer.ggml.pre=str:command-r</t>
+  </si>
+  <si>
+    <t>t/s</t>
+  </si>
+  <si>
+    <t>Железо:</t>
+  </si>
+  <si>
+    <t>nvidia 3060 12 GB, Ryzen 7730U, 64 GB DDR4-3200</t>
+  </si>
+  <si>
+    <t>(отказы и короткие - полбалла, циклы - в бред, выход за рамки диалога в слова автора - в бред)</t>
+  </si>
+  <si>
+    <t>Meta-Llama-3-70B-Instruct-Q4_K_M</t>
+  </si>
+  <si>
+    <t>miqu-1-70b.q5_K_M</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-plus.IQ3_M</t>
   </si>
 </sst>
 </file>
@@ -457,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -504,9 +528,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -546,6 +567,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -841,10 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,79 +884,83 @@
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="38"/>
-    <col min="12" max="12" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="17" width="8.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="39.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="13" max="13" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="29"/>
+    <col min="18" max="18" width="8.28515625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="51" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:19" s="50" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="J1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="47" t="s">
+      <c r="O1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -933,56 +968,57 @@
       <c r="D2" s="3">
         <v>6.9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>16</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <f>(F2+G2)/(F2+G2+H2+I2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="36">
-        <f t="shared" ref="K2:K29" si="0">(F2+G2*0.5)/(F2+G2+H2+I2)</f>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:K45" si="0">(G2+H2)/(G2+H2+I2+J2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="35">
+        <f t="shared" ref="L2" si="1">(G2+H2*0.5)/(G2+H2+I2+J2)</f>
         <v>0.92105263157894735</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>4</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>18</v>
       </c>
-      <c r="N2" s="10">
-        <v>1</v>
-      </c>
       <c r="O2" s="10">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
         <v>22</v>
       </c>
-      <c r="P2" s="28">
-        <f>(L2+N2)/(L2+M2+N2+O2)</f>
+      <c r="Q2" s="28">
+        <f t="shared" ref="Q2:Q45" si="2">(M2+O2)/(M2+N2+O2+P2)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="Q2" s="30">
-        <f>K2*0.66+P2*0.33</f>
+      <c r="R2" s="30">
+        <f t="shared" ref="R2:R45" si="3">L2*0.66+Q2*0.33</f>
         <v>0.64456140350877189</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -990,56 +1026,57 @@
       <c r="D3" s="3">
         <v>6.9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <f>(F3+G3)/(F3+G3+H3+I3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <f>(G3+H3)/(G3+H3+I3+J3)</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="K3" s="39">
-        <f>(F3+G3*0.5)/(F3+G3+H3+I3)</f>
+      <c r="L3" s="38">
+        <f>(G3+H3*0.5)/(G3+H3+I3+J3)</f>
         <v>0.81666666666666665</v>
       </c>
-      <c r="L3" s="9">
+      <c r="M3" s="9">
         <v>8</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
         <v>15</v>
       </c>
-      <c r="N3" s="9">
-        <v>1</v>
-      </c>
       <c r="O3" s="9">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
         <v>20</v>
       </c>
-      <c r="P3" s="28">
-        <f>(L3+N3)/(L3+M3+N3+O3)</f>
+      <c r="Q3" s="28">
+        <f>(M3+O3)/(M3+N3+O3+P3)</f>
         <v>0.20454545454545456</v>
       </c>
-      <c r="Q3" s="30">
-        <f>K3*0.66+P3*0.33</f>
+      <c r="R3" s="30">
+        <f>L3*0.66+Q3*0.33</f>
         <v>0.60650000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1047,56 +1084,57 @@
       <c r="D4" s="3">
         <v>6.9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>13</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <f>(F4+G4)/(F4+G4+H4+I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <f>(G4+H4)/(G4+H4+I4+J4)</f>
         <v>0.94117647058823528</v>
       </c>
-      <c r="K4" s="36">
-        <f>(F4+G4*0.5)/(F4+G4+H4+I4)</f>
+      <c r="L4" s="35">
+        <f>(G4+H4*0.5)/(G4+H4+I4+J4)</f>
         <v>0.8529411764705882</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>12</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>10</v>
       </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
       <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
         <v>20</v>
       </c>
-      <c r="P4" s="28">
-        <f>(L4+N4)/(L4+M4+N4+O4)</f>
+      <c r="Q4" s="28">
+        <f>(M4+O4)/(M4+N4+O4+P4)</f>
         <v>0.30232558139534882</v>
       </c>
-      <c r="Q4" s="30">
-        <f>K4*0.66+P4*0.33</f>
+      <c r="R4" s="30">
+        <f>L4*0.66+Q4*0.33</f>
         <v>0.66270861833105343</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1104,56 +1142,57 @@
       <c r="D5" s="3">
         <v>6.9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>9</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>3</v>
       </c>
-      <c r="J5" s="6">
-        <f>(F5+G5)/(F5+G5+H5+I5)</f>
+      <c r="K5" s="6">
+        <f>(G5+H5)/(G5+H5+I5+J5)</f>
         <v>0.72222222222222221</v>
       </c>
-      <c r="K5" s="36">
-        <f>(F5+G5*0.5)/(F5+G5+H5+I5)</f>
+      <c r="L5" s="35">
+        <f>(G5+H5*0.5)/(G5+H5+I5+J5)</f>
         <v>0.61111111111111116</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>9</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>10</v>
       </c>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
       <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
         <v>20</v>
       </c>
-      <c r="P5" s="28">
-        <f>(L5+N5)/(L5+M5+N5+O5)</f>
+      <c r="Q5" s="28">
+        <f>(M5+O5)/(M5+N5+O5+P5)</f>
         <v>0.25</v>
       </c>
-      <c r="Q5" s="30">
-        <f>K5*0.66+P5*0.33</f>
+      <c r="R5" s="30">
+        <f>L5*0.66+Q5*0.33</f>
         <v>0.48583333333333339</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1161,56 +1200,56 @@
       <c r="D6" s="1">
         <v>6.3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
-        <f>(F6+G6)/(F6+G6+H6+I6)</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="36">
-        <f>(F6+G6*0.5)/(F6+G6+H6+I6)</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f>(G6+H6)/(G6+H6+I6+J6)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="35">
+        <f>(G6+H6*0.5)/(G6+H6+I6+J6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
         <v>12</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
       <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
         <v>20</v>
       </c>
-      <c r="P6" s="28">
-        <f>(L6+N6)/(L6+M6+N6+O6)</f>
+      <c r="Q6" s="28">
+        <f>(M6+O6)/(M6+N6+O6+P6)</f>
         <v>0.3</v>
       </c>
-      <c r="Q6" s="30">
-        <f>K6*0.66+P6*0.33</f>
+      <c r="R6" s="30">
+        <f>L6*0.66+Q6*0.33</f>
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1218,56 +1257,56 @@
       <c r="D7" s="1">
         <v>6.3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f>(F7+G7)/(F7+G7+H7+I7)</f>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <f>(G7+H7)/(G7+H7+I7+J7)</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="K7" s="37">
-        <f>(F7+G7*0.5)/(F7+G7+H7+I7)</f>
+      <c r="L7" s="36">
+        <f>(G7+H7*0.5)/(G7+H7+I7+J7)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <v>12</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>8</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
       <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
         <v>20</v>
       </c>
-      <c r="P7" s="28">
-        <f>(L7+N7)/(L7+M7+N7+O7)</f>
+      <c r="Q7" s="28">
+        <f>(M7+O7)/(M7+N7+O7+P7)</f>
         <v>0.3</v>
       </c>
-      <c r="Q7" s="33">
-        <f>K7*0.66+P7*0.33</f>
+      <c r="R7" s="33">
+        <f>L7*0.66+Q7*0.33</f>
         <v>0.64900000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1275,56 +1314,56 @@
       <c r="D8" s="1">
         <v>6.3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <f>(F8+G8)/(F8+G8+H8+I8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <f>(G8+H8)/(G8+H8+I8+J8)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="K8" s="36">
-        <f>(F8+G8*0.5)/(F8+G8+H8+I8)</f>
+      <c r="L8" s="35">
+        <f>(G8+H8*0.5)/(G8+H8+I8+J8)</f>
         <v>0.76315789473684215</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>6</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>14</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="9">
         <v>2</v>
       </c>
-      <c r="O8" s="9">
+      <c r="P8" s="9">
         <v>18</v>
       </c>
-      <c r="P8" s="28">
-        <f>(L8+N8)/(L8+M8+N8+O8)</f>
+      <c r="Q8" s="28">
+        <f>(M8+O8)/(M8+N8+O8+P8)</f>
         <v>0.2</v>
       </c>
-      <c r="Q8" s="30">
-        <f>K8*0.66+P8*0.33</f>
+      <c r="R8" s="30">
+        <f>L8*0.66+Q8*0.33</f>
         <v>0.56968421052631579</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1332,56 +1371,56 @@
       <c r="D9" s="1">
         <v>6.3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <f>(F9+G9)/(F9+G9+H9+I9)</f>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <f>(G9+H9)/(G9+H9+I9+J9)</f>
         <v>0.65</v>
       </c>
-      <c r="K9" s="36">
-        <f>(F9+G9*0.5)/(F9+G9+H9+I9)</f>
+      <c r="L9" s="35">
+        <f>(G9+H9*0.5)/(G9+H9+I9+J9)</f>
         <v>0.4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>11</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="9">
         <v>5</v>
       </c>
-      <c r="O9" s="9">
+      <c r="P9" s="9">
         <v>15</v>
       </c>
-      <c r="P9" s="28">
-        <f>(L9+N9)/(L9+M9+N9+O9)</f>
+      <c r="Q9" s="28">
+        <f>(M9+O9)/(M9+N9+O9+P9)</f>
         <v>0.35</v>
       </c>
-      <c r="Q9" s="30">
-        <f>K9*0.66+P9*0.33</f>
+      <c r="R9" s="30">
+        <f>L9*0.66+Q9*0.33</f>
         <v>0.3795</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1389,59 +1428,60 @@
       <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>14</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <f>(F10+G10)/(F10+G10+H10+I10)</f>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>(G10+H10)/(G10+H10+I10+J10)</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="K10" s="36">
-        <f>(F10+G10*0.5)/(F10+G10+H10+I10)</f>
+      <c r="L10" s="35">
+        <f>(G10+H10*0.5)/(G10+H10+I10+J10)</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="L10" s="25">
-        <v>1</v>
-      </c>
       <c r="M10" s="25">
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
         <v>19</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="9">
         <v>5</v>
       </c>
-      <c r="O10" s="9">
+      <c r="P10" s="9">
         <v>15</v>
       </c>
-      <c r="P10" s="28">
-        <f>(L10+N10)/(L10+M10+N10+O10)</f>
+      <c r="Q10" s="28">
+        <f>(M10+O10)/(M10+N10+O10+P10)</f>
         <v>0.15</v>
       </c>
-      <c r="Q10" s="30">
-        <f>K10*0.66+P10*0.33</f>
+      <c r="R10" s="30">
+        <f>L10*0.66+Q10*0.33</f>
         <v>0.59302941176470592</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1449,59 +1489,60 @@
       <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>(F11+G11)/(F11+G11+H11+I11)</f>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f>(G11+H11)/(G11+H11+I11+J11)</f>
         <v>0.75</v>
       </c>
-      <c r="K11" s="36">
-        <f>(F11+G11*0.5)/(F11+G11+H11+I11)</f>
+      <c r="L11" s="35">
+        <f>(G11+H11*0.5)/(G11+H11+I11+J11)</f>
         <v>0.75</v>
       </c>
-      <c r="L11" s="25">
-        <v>1</v>
-      </c>
       <c r="M11" s="25">
+        <v>1</v>
+      </c>
+      <c r="N11" s="25">
         <v>19</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="9">
         <v>12</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <v>8</v>
       </c>
-      <c r="P11" s="28">
-        <f>(L11+N11)/(L11+M11+N11+O11)</f>
+      <c r="Q11" s="28">
+        <f>(M11+O11)/(M11+N11+O11+P11)</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="Q11" s="30">
-        <f>K11*0.66+P11*0.33</f>
+      <c r="R11" s="30">
+        <f>L11*0.66+Q11*0.33</f>
         <v>0.60224999999999995</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1509,59 +1550,60 @@
       <c r="D12" s="3">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>9</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f>(F12+G12)/(F12+G12+H12+I12)</f>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f>(G12+H12)/(G12+H12+I12+J12)</f>
         <v>0.6</v>
       </c>
-      <c r="K12" s="36">
-        <f>(F12+G12*0.5)/(F12+G12+H12+I12)</f>
+      <c r="L12" s="35">
+        <f>(G12+H12*0.5)/(G12+H12+I12+J12)</f>
         <v>0.6</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="25">
         <v>6</v>
       </c>
-      <c r="M12" s="25">
+      <c r="N12" s="25">
         <v>14</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>9</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>11</v>
       </c>
-      <c r="P12" s="28">
-        <f>(L12+N12)/(L12+M12+N12+O12)</f>
+      <c r="Q12" s="28">
+        <f>(M12+O12)/(M12+N12+O12+P12)</f>
         <v>0.375</v>
       </c>
-      <c r="Q12" s="30">
-        <f>K12*0.66+P12*0.33</f>
+      <c r="R12" s="30">
+        <f>L12*0.66+Q12*0.33</f>
         <v>0.51975000000000005</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1569,54 +1611,55 @@
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
       <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <v>12</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="6">
-        <f>(F13+G13)/(F13+G13+H13+I13)</f>
+      <c r="K13" s="6">
+        <f>(G13+H13)/(G13+H13+I13+J13)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="K13" s="36">
-        <f>(F13+G13*0.5)/(F13+G13+H13+I13)</f>
+      <c r="L13" s="35">
+        <f>(G13+H13*0.5)/(G13+H13+I13+J13)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="25">
         <v>9</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N13" s="25">
         <v>11</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>12</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>8</v>
       </c>
-      <c r="P13" s="28">
-        <f>(L13+N13)/(L13+M13+N13+O13)</f>
+      <c r="Q13" s="28">
+        <f>(M13+O13)/(M13+N13+O13+P13)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q13" s="30">
-        <f>K13*0.66+P13*0.33</f>
+      <c r="R13" s="30">
+        <f>L13*0.66+Q13*0.33</f>
         <v>0.25089705882352942</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1629,54 +1672,54 @@
       <c r="D14" s="1">
         <v>5.8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>14</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="J14" s="7">
         <v>4</v>
       </c>
-      <c r="J14" s="6">
-        <f>(F14+G14)/(F14+G14+H14+I14)</f>
+      <c r="K14" s="6">
+        <f>(G14+H14)/(G14+H14+I14+J14)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K14" s="36">
-        <f>(F14+G14*0.5)/(F14+G14+H14+I14)</f>
+      <c r="L14" s="35">
+        <f>(G14+H14*0.5)/(G14+H14+I14+J14)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>6</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>14</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>4</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>16</v>
       </c>
-      <c r="P14" s="28">
-        <f>(L14+N14)/(L14+M14+N14+O14)</f>
+      <c r="Q14" s="28">
+        <f>(M14+O14)/(M14+N14+O14+P14)</f>
         <v>0.25</v>
       </c>
-      <c r="Q14" s="30">
-        <f>K14*0.66+P14*0.33</f>
+      <c r="R14" s="30">
+        <f>L14*0.66+Q14*0.33</f>
         <v>0.52249999999999996</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="S14" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1689,54 +1732,54 @@
       <c r="D15" s="1">
         <v>5.8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>13</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <f>(F15+G15)/(F15+G15+H15+I15)</f>
+        <v>7</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <f>(G15+H15)/(G15+H15+I15+J15)</f>
         <v>0.61904761904761907</v>
       </c>
-      <c r="K15" s="36">
-        <f>(F15+G15*0.5)/(F15+G15+H15+I15)</f>
+      <c r="L15" s="35">
+        <f>(G15+H15*0.5)/(G15+H15+I15+J15)</f>
         <v>0.61904761904761907</v>
       </c>
-      <c r="L15" s="2">
-        <v>7</v>
-      </c>
       <c r="M15" s="2">
+        <v>7</v>
+      </c>
+      <c r="N15" s="2">
         <v>13</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>13</v>
       </c>
-      <c r="O15" s="9">
-        <v>7</v>
-      </c>
-      <c r="P15" s="28">
-        <f>(L15+N15)/(L15+M15+N15+O15)</f>
+      <c r="P15" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="28">
+        <f>(M15+O15)/(M15+N15+O15+P15)</f>
         <v>0.5</v>
       </c>
-      <c r="Q15" s="30">
-        <f>K15*0.66+P15*0.33</f>
+      <c r="R15" s="30">
+        <f>L15*0.66+Q15*0.33</f>
         <v>0.57357142857142862</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="S15" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1749,54 +1792,54 @@
       <c r="D16" s="1">
         <v>5.8</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <f>(F16+G16)/(F16+G16+H16+I16)</f>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f>(G16+H16)/(G16+H16+I16+J16)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K16" s="36">
-        <f>(F16+G16*0.5)/(F16+G16+H16+I16)</f>
+      <c r="L16" s="35">
+        <f>(G16+H16*0.5)/(G16+H16+I16+J16)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="L16" s="25">
-        <v>7</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="M16" s="25">
+        <v>7</v>
+      </c>
+      <c r="N16" s="2">
         <v>13</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>13</v>
       </c>
-      <c r="O16" s="9">
-        <v>7</v>
-      </c>
-      <c r="P16" s="28">
-        <f>(L16+N16)/(L16+M16+N16+O16)</f>
+      <c r="P16" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="28">
+        <f>(M16+O16)/(M16+N16+O16+P16)</f>
         <v>0.5</v>
       </c>
-      <c r="Q16" s="30">
-        <f>K16*0.66+P16*0.33</f>
+      <c r="R16" s="30">
+        <f>L16*0.66+Q16*0.33</f>
         <v>0.60499999999999998</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="S16" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1809,54 +1852,54 @@
       <c r="D17" s="1">
         <v>5.8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <f>(F17+G17)/(F17+G17+H17+I17)</f>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f>(G17+H17)/(G17+H17+I17+J17)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K17" s="36">
-        <f>(F17+G17*0.5)/(F17+G17+H17+I17)</f>
+      <c r="L17" s="35">
+        <f>(G17+H17*0.5)/(G17+H17+I17+J17)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L17" s="25">
-        <v>7</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="M17" s="25">
+        <v>7</v>
+      </c>
+      <c r="N17" s="2">
         <v>13</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="9">
         <v>9</v>
       </c>
-      <c r="O17" s="9">
+      <c r="P17" s="9">
         <v>11</v>
       </c>
-      <c r="P17" s="28">
-        <f>(L17+N17)/(L17+M17+N17+O17)</f>
+      <c r="Q17" s="28">
+        <f>(M17+O17)/(M17+N17+O17+P17)</f>
         <v>0.4</v>
       </c>
-      <c r="Q17" s="30">
-        <f>K17*0.66+P17*0.33</f>
+      <c r="R17" s="30">
+        <f>L17*0.66+Q17*0.33</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="S17" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1869,51 +1912,55 @@
       <c r="D18" s="3">
         <v>7.8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
       <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <f>(F18+G18)/(F18+G18+H18+I18)</f>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <f>(G18+H18)/(G18+H18+I18+J18)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="K18" s="36">
-        <f>(F18+G18*0.5)/(F18+G18+H18+I18)</f>
+      <c r="L18" s="35">
+        <f>(G18+H18*0.5)/(G18+H18+I18+J18)</f>
         <v>0.76923076923076927</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
         <v>18</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
         <v>2</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>4</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>16</v>
       </c>
-      <c r="P18" s="28">
-        <f>(L18+N18)/(L18+M18+N18+O18)</f>
+      <c r="Q18" s="28">
+        <f>(M18+O18)/(M18+N18+O18+P18)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q18" s="30">
-        <f>K18*0.66+P18*0.33</f>
+      <c r="R18" s="30">
+        <f>L18*0.66+Q18*0.33</f>
         <v>0.68919230769230777</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1926,51 +1973,55 @@
       <c r="D19" s="3">
         <v>7.8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>9</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
       <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
         <v>10</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <f>(F19+G19)/(F19+G19+H19+I19)</f>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f>(G19+H19)/(G19+H19+I19+J19)</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="K19" s="36">
-        <f>(F19+G19*0.5)/(F19+G19+H19+I19)</f>
+      <c r="L19" s="35">
+        <f>(G19+H19*0.5)/(G19+H19+I19+J19)</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
         <v>16</v>
       </c>
-      <c r="M19" s="9">
+      <c r="N19" s="9">
         <v>4</v>
       </c>
-      <c r="N19" s="26">
+      <c r="O19" s="26">
         <v>6</v>
       </c>
-      <c r="O19" s="26">
+      <c r="P19" s="26">
         <v>14</v>
       </c>
-      <c r="P19" s="28">
-        <f>(L19+N19)/(L19+M19+N19+O19)</f>
+      <c r="Q19" s="28">
+        <f>(M19+O19)/(M19+N19+O19+P19)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q19" s="30">
-        <f>K19*0.66+P19*0.33</f>
+      <c r="R19" s="30">
+        <f>L19*0.66+Q19*0.33</f>
         <v>0.49413157894736848</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1983,51 +2034,55 @@
       <c r="D20" s="3">
         <v>7.8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
       <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <v>3</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <f>(F20+G20)/(F20+G20+H20+I20)</f>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f>(G20+H20)/(G20+H20+I20+J20)</f>
         <v>0.625</v>
       </c>
-      <c r="K20" s="36">
-        <f>(F20+G20*0.5)/(F20+G20+H20+I20)</f>
+      <c r="L20" s="35">
+        <f>(G20+H20*0.5)/(G20+H20+I20+J20)</f>
         <v>0.625</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
         <v>11</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
         <v>9</v>
       </c>
-      <c r="N20" s="26">
+      <c r="O20" s="26">
         <v>9</v>
       </c>
-      <c r="O20" s="26">
+      <c r="P20" s="26">
         <v>11</v>
       </c>
-      <c r="P20" s="28">
-        <f>(L20+N20)/(L20+M20+N20+O20)</f>
+      <c r="Q20" s="28">
+        <f>(M20+O20)/(M20+N20+O20+P20)</f>
         <v>0.5</v>
       </c>
-      <c r="Q20" s="30">
-        <f>K20*0.66+P20*0.33</f>
+      <c r="R20" s="30">
+        <f>L20*0.66+Q20*0.33</f>
         <v>0.57750000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2040,56 +2095,60 @@
       <c r="D21" s="3">
         <v>7.8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
-        <v>7</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
+      <c r="G21" s="4">
+        <v>7</v>
       </c>
       <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
         <v>11</v>
       </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <f>(F21+G21)/(F21+G21+H21+I21)</f>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <f>(G21+H21)/(G21+H21+I21+J21)</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="K21" s="36">
-        <f>(F21+G21*0.5)/(F21+G21+H21+I21)</f>
+      <c r="L21" s="35">
+        <f>(G21+H21*0.5)/(G21+H21+I21+J21)</f>
         <v>0.36842105263157893</v>
       </c>
-      <c r="L21" s="9">
+      <c r="M21" s="9">
         <v>9</v>
       </c>
-      <c r="M21" s="9">
+      <c r="N21" s="9">
         <v>11</v>
       </c>
-      <c r="N21" s="26">
+      <c r="O21" s="26">
         <v>4</v>
       </c>
-      <c r="O21" s="26">
+      <c r="P21" s="26">
         <v>16</v>
       </c>
-      <c r="P21" s="28">
-        <f>(L21+N21)/(L21+M21+N21+O21)</f>
+      <c r="Q21" s="28">
+        <f>(M21+O21)/(M21+N21+O21+P21)</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="Q21" s="30">
-        <f>K21*0.66+P21*0.33</f>
+      <c r="R21" s="30">
+        <f>L21*0.66+Q21*0.33</f>
         <v>0.35040789473684208</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2097,56 +2156,60 @@
       <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
       <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>3</v>
       </c>
-      <c r="I22" s="4">
+      <c r="J22" s="4">
         <v>4</v>
       </c>
-      <c r="J22" s="6">
-        <f>(F22+G22)/(F22+G22+H22+I22)</f>
+      <c r="K22" s="6">
+        <f>(G22+H22)/(G22+H22+I22+J22)</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="K22" s="36">
-        <f>(F22+G22*0.5)/(F22+G22+H22+I22)</f>
+      <c r="L22" s="35">
+        <f>(G22+H22*0.5)/(G22+H22+I22+J22)</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="L22" s="9">
+      <c r="M22" s="9">
         <v>14</v>
       </c>
-      <c r="M22" s="9">
+      <c r="N22" s="9">
         <v>6</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <v>4</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="9">
         <v>16</v>
       </c>
-      <c r="P22" s="28">
-        <f>(L22+N22)/(L22+M22+N22+O22)</f>
+      <c r="Q22" s="28">
+        <f>(M22+O22)/(M22+N22+O22+P22)</f>
         <v>0.45</v>
       </c>
-      <c r="Q22" s="30">
-        <f>K22*0.66+P22*0.33</f>
+      <c r="R22" s="30">
+        <f>L22*0.66+Q22*0.33</f>
         <v>0.53673529411764709</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2154,56 +2217,59 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>12</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
       <c r="H23" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <f>(F23+G23)/(F23+G23+H23+I23)</f>
+        <v>7</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <f>(G23+H23)/(G23+H23+I23+J23)</f>
         <v>0.6</v>
       </c>
-      <c r="K23" s="39">
-        <f>(F23+G23*0.5)/(F23+G23+H23+I23)</f>
+      <c r="L23" s="38">
+        <f>(G23+H23*0.5)/(G23+H23+I23+J23)</f>
         <v>0.6</v>
       </c>
-      <c r="L23" s="9">
+      <c r="M23" s="9">
         <v>17</v>
       </c>
-      <c r="M23" s="9">
+      <c r="N23" s="9">
         <v>3</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>13</v>
       </c>
-      <c r="O23" s="9">
-        <v>7</v>
-      </c>
-      <c r="P23" s="40">
-        <f>(L23+N23)/(L23+M23+N23+O23)</f>
+      <c r="P23" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="39">
+        <f>(M23+O23)/(M23+N23+O23+P23)</f>
         <v>0.75</v>
       </c>
-      <c r="Q23" s="35">
-        <f>K23*0.66+P23*0.33</f>
+      <c r="R23" s="34">
+        <f>L23*0.66+Q23*0.33</f>
         <v>0.64349999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2211,56 +2277,59 @@
       <c r="D24" s="1">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
       <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
         <v>17</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>2</v>
       </c>
-      <c r="J24" s="6">
-        <f>(F24+G24)/(F24+G24+H24+I24)</f>
+      <c r="K24" s="6">
+        <f>(G24+H24)/(G24+H24+I24+J24)</f>
         <v>0.34482758620689657</v>
       </c>
-      <c r="K24" s="36">
-        <f>(F24+G24*0.5)/(F24+G24+H24+I24)</f>
+      <c r="L24" s="35">
+        <f>(G24+H24*0.5)/(G24+H24+I24+J24)</f>
         <v>0.34482758620689657</v>
       </c>
-      <c r="L24" s="9">
+      <c r="M24" s="9">
         <v>13</v>
       </c>
-      <c r="M24" s="9">
-        <v>7</v>
-      </c>
       <c r="N24" s="9">
+        <v>7</v>
+      </c>
+      <c r="O24" s="9">
         <v>16</v>
       </c>
-      <c r="O24" s="9">
+      <c r="P24" s="9">
         <v>4</v>
       </c>
-      <c r="P24" s="28">
-        <f>(L24+N24)/(L24+M24+N24+O24)</f>
+      <c r="Q24" s="28">
+        <f>(M24+O24)/(M24+N24+O24+P24)</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="Q24" s="30">
-        <f>K24*0.66+P24*0.33</f>
+      <c r="R24" s="30">
+        <f>L24*0.66+Q24*0.33</f>
         <v>0.46683620689655175</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2268,51 +2337,54 @@
       <c r="D25" s="1">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
       <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>14</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="6">
-        <f>(F25+G25)/(F25+G25+H25+I25)</f>
+      <c r="K25" s="6">
+        <f>(G25+H25)/(G25+H25+I25+J25)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="K25" s="36">
-        <f>(F25+G25*0.5)/(F25+G25+H25+I25)</f>
+      <c r="L25" s="35">
+        <f>(G25+H25*0.5)/(G25+H25+I25+J25)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="L25" s="9">
+      <c r="M25" s="9">
         <v>8</v>
       </c>
-      <c r="M25" s="9">
+      <c r="N25" s="9">
         <v>12</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>11</v>
       </c>
-      <c r="O25" s="9">
+      <c r="P25" s="9">
         <v>9</v>
       </c>
-      <c r="P25" s="28">
-        <f>(L25+N25)/(L25+M25+N25+O25)</f>
+      <c r="Q25" s="28">
+        <f>(M25+O25)/(M25+N25+O25+P25)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="Q25" s="30">
-        <f>K25*0.66+P25*0.33</f>
+      <c r="R25" s="30">
+        <f>L25*0.66+Q25*0.33</f>
         <v>0.24675</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2325,52 +2397,52 @@
       <c r="D26" s="1">
         <v>5.7</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>14</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <f>(F26+G26)/(F26+G26+H26+I26)</f>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>(G26+H26)/(G26+H26+I26+J26)</f>
         <v>0.75</v>
       </c>
-      <c r="K26" s="36">
-        <f>(F26+G26*0.5)/(F26+G26+H26+I26)</f>
+      <c r="L26" s="35">
+        <f>(G26+H26*0.5)/(G26+H26+I26+J26)</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="L26" s="9">
+      <c r="M26" s="9">
         <v>19</v>
       </c>
-      <c r="M26" s="9">
-        <v>1</v>
-      </c>
       <c r="N26" s="9">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
         <v>18</v>
       </c>
-      <c r="O26" s="9">
+      <c r="P26" s="9">
         <v>2</v>
       </c>
-      <c r="P26" s="28">
-        <f>(L26+N26)/(L26+M26+N26+O26)</f>
+      <c r="Q26" s="28">
+        <f>(M26+O26)/(M26+N26+O26+P26)</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="Q26" s="30">
-        <f>K26*0.66+P26*0.33</f>
+      <c r="R26" s="30">
+        <f>L26*0.66+Q26*0.33</f>
         <v>0.78374999999999995</v>
       </c>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2383,51 +2455,51 @@
       <c r="D27" s="1">
         <v>5.7</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>8</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>3</v>
       </c>
-      <c r="H27" s="4">
-        <v>7</v>
-      </c>
       <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <f>(F27+G27)/(F27+G27+H27+I27)</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <f>(G27+H27)/(G27+H27+I27+J27)</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K27" s="36">
-        <f>(F27+G27*0.5)/(F27+G27+H27+I27)</f>
+      <c r="L27" s="35">
+        <f>(G27+H27*0.5)/(G27+H27+I27+J27)</f>
         <v>0.5</v>
       </c>
-      <c r="L27" s="9">
+      <c r="M27" s="9">
         <v>19</v>
       </c>
-      <c r="M27" s="9">
-        <v>1</v>
-      </c>
       <c r="N27" s="9">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
         <v>17</v>
       </c>
-      <c r="O27" s="9">
+      <c r="P27" s="9">
         <v>3</v>
       </c>
-      <c r="P27" s="32">
-        <f>(L27+N27)/(L27+M27+N27+O27)</f>
+      <c r="Q27" s="39">
+        <f>(M27+O27)/(M27+N27+O27+P27)</f>
         <v>0.9</v>
       </c>
-      <c r="Q27" s="35">
-        <f>K27*0.66+P27*0.33</f>
+      <c r="R27" s="34">
+        <f>L27*0.66+Q27*0.33</f>
         <v>0.627</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2440,52 +2512,52 @@
       <c r="D28" s="1">
         <v>5.7</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>6</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="J28" s="6">
-        <f>(F28+G28)/(F28+G28+H28+I28)</f>
+      <c r="K28" s="6">
+        <f>(G28+H28)/(G28+H28+I28+J28)</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="K28" s="36">
-        <f>(F28+G28*0.5)/(F28+G28+H28+I28)</f>
+      <c r="L28" s="35">
+        <f>(G28+H28*0.5)/(G28+H28+I28+J28)</f>
         <v>0.3611111111111111</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>18</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>2</v>
       </c>
-      <c r="N28" s="11">
+      <c r="O28" s="11">
         <v>16</v>
       </c>
-      <c r="O28" s="9">
+      <c r="P28" s="9">
         <v>4</v>
       </c>
-      <c r="P28" s="28">
-        <f>(L28+N28)/(L28+M28+N28+O28)</f>
+      <c r="Q28" s="28">
+        <f>(M28+O28)/(M28+N28+O28+P28)</f>
         <v>0.85</v>
       </c>
-      <c r="Q28" s="30">
-        <f>K28*0.66+P28*0.33</f>
+      <c r="R28" s="30">
+        <f>L28*0.66+Q28*0.33</f>
         <v>0.51883333333333337</v>
       </c>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2498,52 +2570,52 @@
       <c r="D29" s="1">
         <v>5.7</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5</v>
       </c>
-      <c r="J29" s="6">
-        <f>(F29+G29)/(F29+G29+H29+I29)</f>
+      <c r="K29" s="6">
+        <f>(G29+H29)/(G29+H29+I29+J29)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="K29" s="36">
-        <f>(F29+G29*0.5)/(F29+G29+H29+I29)</f>
+      <c r="L29" s="35">
+        <f>(G29+H29*0.5)/(G29+H29+I29+J29)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>11</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>9</v>
       </c>
-      <c r="N29" s="9">
+      <c r="O29" s="9">
         <v>16</v>
       </c>
-      <c r="O29" s="9">
+      <c r="P29" s="9">
         <v>4</v>
       </c>
-      <c r="P29" s="28">
-        <f>(L29+N29)/(L29+M29+N29+O29)</f>
+      <c r="Q29" s="28">
+        <f>(M29+O29)/(M29+N29+O29+P29)</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="Q29" s="30">
-        <f>K29*0.66+P29*0.33</f>
+      <c r="R29" s="30">
+        <f>L29*0.66+Q29*0.33</f>
         <v>0.28275000000000006</v>
       </c>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2556,51 +2628,51 @@
       <c r="D30" s="1">
         <v>6.5</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>9</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6">
-        <f>(F30+G30)/(F30+G30+H30+I30)</f>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <f>(G30+H30)/(G30+H30+I30+J30)</f>
         <v>0.7</v>
       </c>
-      <c r="K30" s="36">
-        <f>(F30+G30*0.5)/(F30+G30+H30+I30)</f>
+      <c r="L30" s="35">
+        <f>(G30+H30*0.5)/(G30+H30+I30+J30)</f>
         <v>0.7</v>
       </c>
-      <c r="L30" s="9">
-        <v>1</v>
-      </c>
       <c r="M30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
         <v>19</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>15</v>
       </c>
-      <c r="O30" s="9">
+      <c r="P30" s="9">
         <v>5</v>
       </c>
-      <c r="P30" s="28">
-        <f>(L30+N30)/(L30+M30+N30+O30)</f>
+      <c r="Q30" s="28">
+        <f>(M30+O30)/(M30+N30+O30+P30)</f>
         <v>0.4</v>
       </c>
-      <c r="Q30" s="30">
-        <f>K30*0.66+P30*0.33</f>
+      <c r="R30" s="30">
+        <f>L30*0.66+Q30*0.33</f>
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2613,51 +2685,51 @@
       <c r="D31" s="1">
         <v>6.5</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>3</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>8</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6">
-        <f>(F31+G31)/(F31+G31+H31+I31)</f>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <f>(G31+H31)/(G31+H31+I31+J31)</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="K31" s="36">
-        <f>(F31+G31*0.5)/(F31+G31+H31+I31)</f>
+      <c r="L31" s="35">
+        <f>(G31+H31*0.5)/(G31+H31+I31+J31)</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
       <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
         <v>20</v>
       </c>
-      <c r="N31" s="9">
+      <c r="O31" s="9">
         <v>13</v>
       </c>
-      <c r="O31" s="9">
-        <v>7</v>
-      </c>
-      <c r="P31" s="28">
-        <f>(L31+N31)/(L31+M31+N31+O31)</f>
+      <c r="P31" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="28">
+        <f>(M31+O31)/(M31+N31+O31+P31)</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="Q31" s="30">
-        <f>K31*0.66+P31*0.33</f>
+      <c r="R31" s="30">
+        <f>L31*0.66+Q31*0.33</f>
         <v>0.34296428571428572</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2670,51 +2742,51 @@
       <c r="D32" s="1">
         <v>6.5</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>9</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4</v>
       </c>
-      <c r="J32" s="6">
-        <f>(F32+G32)/(F32+G32+H32+I32)</f>
+      <c r="K32" s="6">
+        <f>(G32+H32)/(G32+H32+I32+J32)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K32" s="36">
-        <f>(F32+G32*0.5)/(F32+G32+H32+I32)</f>
+      <c r="L32" s="35">
+        <f>(G32+H32*0.5)/(G32+H32+I32+J32)</f>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="L32" s="9">
-        <v>1</v>
-      </c>
       <c r="M32" s="9">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9">
         <v>19</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="9">
         <v>15</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="9">
         <v>5</v>
       </c>
-      <c r="P32" s="28">
-        <f>(L32+N32)/(L32+M32+N32+O32)</f>
+      <c r="Q32" s="28">
+        <f>(M32+O32)/(M32+N32+O32+P32)</f>
         <v>0.4</v>
       </c>
-      <c r="Q32" s="30">
-        <f>K32*0.66+P32*0.33</f>
+      <c r="R32" s="30">
+        <f>L32*0.66+Q32*0.33</f>
         <v>0.15557142857142858</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2727,51 +2799,51 @@
       <c r="D33" s="1">
         <v>6.5</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>6</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="J33" s="6">
-        <f>(F33+G33)/(F33+G33+H33+I33)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="36">
-        <f>(F33+G33*0.5)/(F33+G33+H33+I33)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="9">
+      <c r="K33" s="6">
+        <f>(G33+H33)/(G33+H33+I33+J33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="35">
+        <f>(G33+H33*0.5)/(G33+H33+I33+J33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
         <v>2</v>
       </c>
-      <c r="M33" s="9">
+      <c r="N33" s="9">
         <v>18</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>13</v>
       </c>
-      <c r="O33" s="9">
-        <v>7</v>
-      </c>
-      <c r="P33" s="28">
-        <f>(L33+N33)/(L33+M33+N33+O33)</f>
+      <c r="P33" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="28">
+        <f>(M33+O33)/(M33+N33+O33+P33)</f>
         <v>0.375</v>
       </c>
-      <c r="Q33" s="30">
-        <f>K33*0.66+P33*0.33</f>
+      <c r="R33" s="30">
+        <f>L33*0.66+Q33*0.33</f>
         <v>0.12375</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2784,14 +2856,11 @@
       <c r="D34" s="1">
         <v>26.3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
       <c r="G34">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -2799,36 +2868,39 @@
       <c r="I34">
         <v>4</v>
       </c>
-      <c r="J34" s="6">
-        <f>(F34+G34)/(F34+G34+H34+I34)</f>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" s="6">
+        <f>(G34+H34)/(G34+H34+I34+J34)</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="K34" s="36">
-        <f>(F34+G34*0.5)/(F34+G34+H34+I34)</f>
+      <c r="L34" s="35">
+        <f>(G34+H34*0.5)/(G34+H34+I34+J34)</f>
         <v>0.47368421052631576</v>
       </c>
-      <c r="L34" s="9">
+      <c r="M34" s="9">
         <v>5</v>
       </c>
-      <c r="M34" s="9">
+      <c r="N34" s="9">
         <v>15</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O34" s="9">
         <v>6</v>
       </c>
-      <c r="O34" s="9">
+      <c r="P34" s="9">
         <v>14</v>
       </c>
-      <c r="P34" s="28">
-        <f>(L34+N34)/(L34+M34+N34+O34)</f>
+      <c r="Q34" s="28">
+        <f>(M34+O34)/(M34+N34+O34+P34)</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="Q34" s="30">
-        <f>K34*0.66+P34*0.33</f>
+      <c r="R34" s="30">
+        <f>L34*0.66+Q34*0.33</f>
         <v>0.40338157894736842</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2841,51 +2913,51 @@
       <c r="D35" s="1">
         <v>26.3</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>13</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>9</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="J35" s="6">
-        <f>(F35+G35)/(F35+G35+H35+I35)</f>
+      <c r="K35" s="6">
+        <f>(G35+H35)/(G35+H35+I35+J35)</f>
         <v>0.57692307692307687</v>
       </c>
-      <c r="K35" s="36">
-        <f>(F35+G35*0.5)/(F35+G35+H35+I35)</f>
+      <c r="L35" s="35">
+        <f>(G35+H35*0.5)/(G35+H35+I35+J35)</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="L35" s="9">
+      <c r="M35" s="9">
         <v>8</v>
       </c>
-      <c r="M35" s="9">
+      <c r="N35" s="9">
         <v>12</v>
       </c>
-      <c r="N35" s="9">
+      <c r="O35" s="9">
         <v>9</v>
       </c>
-      <c r="O35" s="9">
+      <c r="P35" s="9">
         <v>11</v>
       </c>
-      <c r="P35" s="28">
-        <f>(L35+N35)/(L35+M35+N35+O35)</f>
+      <c r="Q35" s="28">
+        <f>(M35+O35)/(M35+N35+O35+P35)</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="Q35" s="30">
-        <f>K35*0.66+P35*0.33</f>
+      <c r="R35" s="30">
+        <f>L35*0.66+Q35*0.33</f>
         <v>0.4956346153846154</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2898,51 +2970,51 @@
       <c r="D36" s="1">
         <v>26.3</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>13</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>9</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3</v>
       </c>
-      <c r="J36" s="6">
-        <f>(F36+G36)/(F36+G36+H36+I36)</f>
+      <c r="K36" s="6">
+        <f>(G36+H36)/(G36+H36+I36+J36)</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="K36" s="36">
-        <f>(F36+G36*0.5)/(F36+G36+H36+I36)</f>
+      <c r="L36" s="35">
+        <f>(G36+H36*0.5)/(G36+H36+I36+J36)</f>
         <v>0.51851851851851849</v>
       </c>
-      <c r="L36" s="9">
+      <c r="M36" s="9">
         <v>11</v>
       </c>
-      <c r="M36" s="9">
+      <c r="N36" s="9">
         <v>9</v>
-      </c>
-      <c r="N36" s="9">
-        <v>10</v>
       </c>
       <c r="O36" s="9">
         <v>10</v>
       </c>
-      <c r="P36" s="28">
-        <f>(L36+N36)/(L36+M36+N36+O36)</f>
+      <c r="P36" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="28">
+        <f>(M36+O36)/(M36+N36+O36+P36)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q36" s="30">
-        <f>K36*0.66+P36*0.33</f>
+      <c r="R36" s="30">
+        <f>L36*0.66+Q36*0.33</f>
         <v>0.51547222222222222</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2955,51 +3027,51 @@
       <c r="D37" s="1">
         <v>26.3</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>6</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>2</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>13</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5</v>
       </c>
-      <c r="J37" s="6">
-        <f>(F37+G37)/(F37+G37+H37+I37)</f>
+      <c r="K37" s="6">
+        <f>(G37+H37)/(G37+H37+I37+J37)</f>
         <v>0.30769230769230771</v>
       </c>
-      <c r="K37" s="36">
-        <f>(F37+G37*0.5)/(F37+G37+H37+I37)</f>
+      <c r="L37" s="35">
+        <f>(G37+H37*0.5)/(G37+H37+I37+J37)</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="L37" s="9">
+      <c r="M37" s="9">
         <v>9</v>
       </c>
-      <c r="M37" s="9">
+      <c r="N37" s="9">
         <v>11</v>
       </c>
-      <c r="N37" s="9">
+      <c r="O37" s="9">
         <v>8</v>
       </c>
-      <c r="O37" s="9">
+      <c r="P37" s="9">
         <v>19</v>
       </c>
-      <c r="P37" s="28">
-        <f>(L37+N37)/(L37+M37+N37+O37)</f>
+      <c r="Q37" s="28">
+        <f>(M37+O37)/(M37+N37+O37+P37)</f>
         <v>0.36170212765957449</v>
       </c>
-      <c r="Q37" s="30">
-        <f>K37*0.66+P37*0.33</f>
+      <c r="R37" s="30">
+        <f>L37*0.66+Q37*0.33</f>
         <v>0.29705400981996732</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3012,51 +3084,51 @@
       <c r="D38" s="1">
         <v>7.9</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
       <c r="G38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>2</v>
       </c>
-      <c r="J38" s="6">
-        <f>(F38+G38)/(F38+G38+H38+I38)</f>
+      <c r="K38" s="6">
+        <f>(G38+H38)/(G38+H38+I38+J38)</f>
         <v>0.7</v>
       </c>
-      <c r="K38" s="36">
-        <f>(F38+G38*0.5)/(F38+G38+H38+I38)</f>
+      <c r="L38" s="35">
+        <f>(G38+H38*0.5)/(G38+H38+I38+J38)</f>
         <v>0.7</v>
       </c>
-      <c r="L38" s="8">
+      <c r="M38" s="8">
         <v>8</v>
       </c>
-      <c r="M38" s="10">
+      <c r="N38" s="10">
         <v>12</v>
       </c>
-      <c r="N38" s="8">
+      <c r="O38" s="8">
         <v>20</v>
       </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-      <c r="P38" s="28">
-        <f>(L38+N38)/(L38+M38+N38+O38)</f>
+      <c r="P38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="28">
+        <f>(M38+O38)/(M38+N38+O38+P38)</f>
         <v>0.7</v>
       </c>
-      <c r="Q38" s="30">
-        <f>K38*0.66+P38*0.33</f>
+      <c r="R38" s="30">
+        <f>L38*0.66+Q38*0.33</f>
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3069,51 +3141,51 @@
       <c r="D39" s="1">
         <v>7.9</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>3</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>10</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>2</v>
       </c>
-      <c r="J39" s="6">
-        <f>(F39+G39)/(F39+G39+H39+I39)</f>
+      <c r="K39" s="6">
+        <f>(G39+H39)/(G39+H39+I39+J39)</f>
         <v>0.4</v>
       </c>
-      <c r="K39" s="36">
-        <f>(F39+G39*0.5)/(F39+G39+H39+I39)</f>
+      <c r="L39" s="35">
+        <f>(G39+H39*0.5)/(G39+H39+I39+J39)</f>
         <v>0.4</v>
       </c>
-      <c r="L39" s="8">
+      <c r="M39" s="8">
         <v>9</v>
       </c>
-      <c r="M39" s="24">
+      <c r="N39" s="24">
         <v>11</v>
       </c>
-      <c r="N39" s="23">
+      <c r="O39" s="23">
         <v>19</v>
       </c>
-      <c r="O39" s="8">
-        <v>1</v>
-      </c>
-      <c r="P39" s="28">
-        <f>(L39+N39)/(L39+M39+N39+O39)</f>
+      <c r="P39" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="28">
+        <f>(M39+O39)/(M39+N39+O39+P39)</f>
         <v>0.7</v>
       </c>
-      <c r="Q39" s="35">
-        <f>K39*0.66+P39*0.33</f>
+      <c r="R39" s="34">
+        <f>L39*0.66+Q39*0.33</f>
         <v>0.495</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3126,51 +3198,51 @@
       <c r="D40" s="1">
         <v>7.9</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>4</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>8</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <f>(F40+G40)/(F40+G40+H40+I40)</f>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f>(G40+H40)/(G40+H40+I40+J40)</f>
         <v>0.2</v>
       </c>
-      <c r="K40" s="36">
-        <f>(F40+G40*0.5)/(F40+G40+H40+I40)</f>
+      <c r="L40" s="35">
+        <f>(G40+H40*0.5)/(G40+H40+I40+J40)</f>
         <v>0.2</v>
       </c>
-      <c r="L40" s="8">
+      <c r="M40" s="8">
         <v>10</v>
       </c>
-      <c r="M40" s="10">
+      <c r="N40" s="10">
         <v>10</v>
       </c>
-      <c r="N40" s="8">
+      <c r="O40" s="8">
         <v>12</v>
       </c>
-      <c r="O40" s="8">
+      <c r="P40" s="8">
         <v>8</v>
       </c>
-      <c r="P40" s="28">
-        <f>(L40+N40)/(L40+M40+N40+O40)</f>
+      <c r="Q40" s="28">
+        <f>(M40+O40)/(M40+N40+O40+P40)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q40" s="30">
-        <f>K40*0.66+P40*0.33</f>
+      <c r="R40" s="30">
+        <f>L40*0.66+Q40*0.33</f>
         <v>0.3135</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3183,51 +3255,51 @@
       <c r="D41" s="1">
         <v>7.9</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>13</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>2</v>
       </c>
-      <c r="J41" s="6">
-        <f>(F41+G41)/(F41+G41+H41+I41)</f>
+      <c r="K41" s="6">
+        <f>(G41+H41)/(G41+H41+I41+J41)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K41" s="36">
-        <f>(F41+G41*0.5)/(F41+G41+H41+I41)</f>
+      <c r="L41" s="35">
+        <f>(G41+H41*0.5)/(G41+H41+I41+J41)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <v>8</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>12</v>
       </c>
-      <c r="N41" s="10">
+      <c r="O41" s="10">
         <v>13</v>
       </c>
-      <c r="O41" s="23">
-        <v>7</v>
-      </c>
-      <c r="P41" s="28">
-        <f>(L41+N41)/(L41+M41+N41+O41)</f>
+      <c r="P41" s="23">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="28">
+        <f>(M41+O41)/(M41+N41+O41+P41)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q41" s="30">
-        <f>K41*0.66+P41*0.33</f>
+      <c r="R41" s="30">
+        <f>L41*0.66+Q41*0.33</f>
         <v>0.19387500000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3240,48 +3312,51 @@
       <c r="D42" s="1">
         <v>13</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <f>(F42+G42)/(F42+G42+H42+I42)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K42" s="36">
-        <f>(F42+G42*0.5)/(F42+G42+H42+I42)</f>
-        <v>0.8</v>
-      </c>
-      <c r="L42" s="10">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="6">
+        <f>(G42+H42)/(G42+H42+I42+J42)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L42" s="35">
+        <f>(G42+H42*0.5)/(G42+H42+I42+J42)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M42" s="10">
         <v>15</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>5</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <v>2</v>
       </c>
-      <c r="O42" s="10">
+      <c r="P42" s="10">
         <v>18</v>
       </c>
-      <c r="P42" s="28">
-        <f>(L42+N42)/(L42+M42+N42+O42)</f>
+      <c r="Q42" s="28">
+        <f>(M42+O42)/(M42+N42+O42+P42)</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="Q42" s="30">
-        <f>K42*0.66+P42*0.33</f>
-        <v>0.66825000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="R42" s="30">
+        <f>L42*0.66+Q42*0.33</f>
+        <v>0.62025000000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3294,48 +3369,55 @@
       <c r="D43" s="1">
         <v>13</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F43" t="s">
         <v>3</v>
       </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
+      <c r="G43" s="4">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4</v>
+      </c>
+      <c r="K43" s="6">
+        <f>(G43+H43)/(G43+H43+I43+J43)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="L43" s="35">
+        <f>(G43+H43*0.5)/(G43+H43+I43+J43)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="M43" s="10">
+        <v>13</v>
+      </c>
+      <c r="N43" s="10">
+        <v>7</v>
+      </c>
+      <c r="O43" s="10">
         <v>3</v>
       </c>
-      <c r="J43" s="6">
-        <f>(F43+G43)/(F43+G43+H43+I43)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="36">
-        <f>(F43+G43*0.5)/(F43+G43+H43+I43)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="10">
-        <v>13</v>
-      </c>
-      <c r="M43" s="10">
-        <v>7</v>
-      </c>
-      <c r="N43" s="10">
-        <v>3</v>
-      </c>
-      <c r="O43" s="10">
+      <c r="P43" s="10">
         <v>17</v>
       </c>
-      <c r="P43" s="28">
-        <f>(L43+N43)/(L43+M43+N43+O43)</f>
+      <c r="Q43" s="28">
+        <f>(M43+O43)/(M43+N43+O43+P43)</f>
         <v>0.4</v>
       </c>
-      <c r="Q43" s="30">
-        <f>K43*0.66+P43*0.33</f>
-        <v>0.46200000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="R43" s="30">
+        <f>L43*0.66+Q43*0.33</f>
+        <v>0.47771428571428576</v>
+      </c>
+      <c r="S43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3348,48 +3430,51 @@
       <c r="D44" s="1">
         <v>13</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F44" t="s">
         <v>4</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>10</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>5</v>
       </c>
-      <c r="J44" s="6">
-        <f>(F44+G44)/(F44+G44+H44+I44)</f>
+      <c r="K44" s="6">
+        <f>(G44+H44)/(G44+H44+I44+J44)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="K44" s="36">
-        <f>(F44+G44*0.5)/(F44+G44+H44+I44)</f>
+      <c r="L44" s="35">
+        <f>(G44+H44*0.5)/(G44+H44+I44+J44)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <v>9</v>
       </c>
-      <c r="M44" s="10">
+      <c r="N44" s="10">
         <v>11</v>
       </c>
-      <c r="N44" s="10">
-        <v>1</v>
-      </c>
       <c r="O44" s="10">
+        <v>1</v>
+      </c>
+      <c r="P44" s="10">
         <v>19</v>
       </c>
-      <c r="P44" s="28">
-        <f>(L44+N44)/(L44+M44+N44+O44)</f>
+      <c r="Q44" s="28">
+        <f>(M44+O44)/(M44+N44+O44+P44)</f>
         <v>0.25</v>
       </c>
-      <c r="Q44" s="30">
-        <f>K44*0.66+P44*0.33</f>
+      <c r="R44" s="30">
+        <f>L44*0.66+Q44*0.33</f>
         <v>0.16014705882352942</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3402,48 +3487,51 @@
       <c r="D45" s="1">
         <v>13</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F45" t="s">
         <v>5</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3</v>
       </c>
-      <c r="J45" s="6">
-        <f>(F45+G45)/(F45+G45+H45+I45)</f>
+      <c r="K45" s="6">
+        <f>(G45+H45)/(G45+H45+I45+J45)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K45" s="36">
-        <f>(F45+G45*0.5)/(F45+G45+H45+I45)</f>
+      <c r="L45" s="35">
+        <f>(G45+H45*0.5)/(G45+H45+I45+J45)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="L45" s="10">
-        <v>1</v>
-      </c>
       <c r="M45" s="10">
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
         <v>6</v>
       </c>
-      <c r="N45" s="10">
-        <v>1</v>
-      </c>
       <c r="O45" s="10">
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
         <v>6</v>
       </c>
-      <c r="P45" s="28">
-        <f>(L45+N45)/(L45+M45+N45+O45)</f>
+      <c r="Q45" s="28">
+        <f>(M45+O45)/(M45+N45+O45+P45)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Q45" s="30">
-        <f>K45*0.66+P45*0.33</f>
+      <c r="R45" s="30">
+        <f>L45*0.66+Q45*0.33</f>
         <v>0.15714285714285714</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3456,15 +3544,23 @@
       <c r="D46" s="1">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="R46" t="s">
+      <c r="K46" s="6"/>
+      <c r="Q46" s="28" t="e">
+        <f>(M46+O46)/(M46+N46+O46+P46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="30" t="e">
+        <f>L46*0.66+Q46*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3477,15 +3573,23 @@
       <c r="D47" s="1">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="R47" t="s">
+      <c r="K47" s="6"/>
+      <c r="Q47" s="28" t="e">
+        <f t="shared" ref="Q47:Q59" si="4">(M47+O47)/(M47+N47+O47+P47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R47" s="30" t="e">
+        <f t="shared" ref="R47:R59" si="5">L47*0.66+Q47*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3498,15 +3602,23 @@
       <c r="D48" s="1">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="R48" t="s">
+      <c r="K48" s="6"/>
+      <c r="Q48" s="28" t="e">
+        <f>(M48+O48)/(M48+N48+O48+P48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R48" s="30" t="e">
+        <f>L48*0.66+Q48*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3519,15 +3631,23 @@
       <c r="D49" s="1">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="R49" t="s">
+      <c r="K49" s="6"/>
+      <c r="Q49" s="28" t="e">
+        <f>(M49+O49)/(M49+N49+O49+P49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R49" s="30" t="e">
+        <f>L49*0.66+Q49*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3540,12 +3660,20 @@
       <c r="D50" s="1">
         <v>5.8</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="K50" s="6"/>
+      <c r="Q50" s="28" t="e">
+        <f>(M50+O50)/(M50+N50+O50+P50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R50" s="30" t="e">
+        <f>L50*0.66+Q50*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3558,12 +3686,20 @@
       <c r="D51" s="1">
         <v>5.8</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="K51" s="6"/>
+      <c r="Q51" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R51" s="30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3576,12 +3712,20 @@
       <c r="D52" s="1">
         <v>5.8</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="K52" s="6"/>
+      <c r="Q52" s="28" t="e">
+        <f>(M52+O52)/(M52+N52+O52+P52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="30" t="e">
+        <f>L52*0.66+Q52*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3594,17 +3738,25 @@
       <c r="D53" s="1">
         <v>5.8</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="K53" s="6"/>
+      <c r="Q53" s="28" t="e">
+        <f>(M53+O53)/(M53+N53+O53+P53)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R53" s="30" t="e">
+        <f>L53*0.66+Q53*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3612,42 +3764,49 @@
       <c r="D54" s="3">
         <v>5.6</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>17</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="6">
-        <f>(F54+G54)/(F54+G54+H54+I54)</f>
-        <v>1</v>
-      </c>
-      <c r="K54" s="36">
-        <f>(F54+G54*0.5)/(F54+G54+H54+I54)</f>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <f>(G54+H54)/(G54+H54+I54+J54)</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="35">
+        <f>(G54+H54*0.5)/(G54+H54+I54+J54)</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="30"/>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="P54" s="9"/>
+      <c r="Q54" s="28" t="e">
+        <f>(M54+O54)/(M54+N54+O54+P54)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R54" s="30" t="e">
+        <f>L54*0.66+Q54*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -3655,42 +3814,49 @@
       <c r="D55" s="3">
         <v>5.6</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" t="s">
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>16</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="6">
-        <f>(F55+G55)/(F55+G55+H55+I55)</f>
-        <v>1</v>
-      </c>
-      <c r="K55" s="36">
-        <f>(F55+G55*0.5)/(F55+G55+H55+I55)</f>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <f>(G55+H55)/(G55+H55+I55+J55)</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="35">
+        <f>(G55+H55*0.5)/(G55+H55+I55+J55)</f>
         <v>0.92105263157894735</v>
       </c>
-      <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="30"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="P55" s="9"/>
+      <c r="Q55" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R55" s="30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -3698,42 +3864,49 @@
       <c r="D56" s="3">
         <v>5.6</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="7">
+      <c r="G56" s="7">
         <v>10</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>4</v>
       </c>
-      <c r="H56" s="7">
-        <v>1</v>
-      </c>
       <c r="I56" s="7">
         <v>1</v>
       </c>
-      <c r="J56" s="6">
-        <f>(F56+G56)/(F56+G56+H56+I56)</f>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6">
+        <f>(G56+H56)/(G56+H56+I56+J56)</f>
         <v>0.875</v>
       </c>
-      <c r="K56" s="36">
-        <f>(F56+G56*0.5)/(F56+G56+H56+I56)</f>
+      <c r="L56" s="35">
+        <f>(G56+H56*0.5)/(G56+H56+I56+J56)</f>
         <v>0.75</v>
       </c>
-      <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="30"/>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="P56" s="9"/>
+      <c r="Q56" s="28" t="e">
+        <f>(M56+O56)/(M56+N56+O56+P56)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" s="30" t="e">
+        <f>L56*0.66+Q56*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -3741,37 +3914,44 @@
       <c r="D57" s="3">
         <v>5.6</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3"/>
+      <c r="F57" t="s">
         <v>5</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>5</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>4</v>
       </c>
-      <c r="J57" s="6">
-        <f>(F57+G57)/(F57+G57+H57+I57)</f>
+      <c r="K57" s="6">
+        <f>(G57+H57)/(G57+H57+I57+J57)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="K57" s="36">
-        <f>(F57+G57*0.5)/(F57+G57+H57+I57)</f>
+      <c r="L57" s="35">
+        <f>(G57+H57*0.5)/(G57+H57+I57+J57)</f>
         <v>0.59523809523809523</v>
       </c>
-      <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="30"/>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="P57" s="9"/>
+      <c r="Q57" s="28" t="e">
+        <f>(M57+O57)/(M57+N57+O57+P57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" s="30" t="e">
+        <f>L57*0.66+Q57*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3784,11 +3964,22 @@
       <c r="D58" s="3">
         <v>5.6</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3"/>
+      <c r="F58" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="K58" s="6"/>
+      <c r="L58" s="35"/>
+      <c r="Q58" s="28" t="e">
+        <f>(M58+O58)/(M58+N58+O58+P58)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R58" s="30" t="e">
+        <f>L58*0.66+Q58*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3801,11 +3992,22 @@
       <c r="D59" s="3">
         <v>5.6</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="K59" s="6"/>
+      <c r="L59" s="35"/>
+      <c r="Q59" s="28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R59" s="30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3818,11 +4020,22 @@
       <c r="D60" s="3">
         <v>5.6</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3"/>
+      <c r="F60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="K60" s="6"/>
+      <c r="L60" s="35"/>
+      <c r="Q60" s="28" t="e">
+        <f>(M60+O60)/(M60+N60+O60+P60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R60" s="30" t="e">
+        <f>L60*0.66+Q60*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3835,16 +4048,508 @@
       <c r="D61" s="3">
         <v>5.6</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="D62" s="3"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="35"/>
+      <c r="Q61" s="28" t="e">
+        <f>(M61+O61)/(M61+N61+O61+P61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R61" s="30" t="e">
+        <f>L61*0.66+Q61*0.33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62" s="3">
+        <v>48</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <f>(G62+H62)/(G62+H62+I62+J62)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L62" s="35">
+        <f>(G62+H62*0.5)/(G62+H62+I62+J62)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M62" s="8">
+        <v>20</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>20</v>
+      </c>
+      <c r="P62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="28">
+        <f>(M62+O62)/(M62+N62+O62+P62)</f>
+        <v>1</v>
+      </c>
+      <c r="R62" s="30">
+        <f>L62*0.66+Q62*0.33</f>
+        <v>0.8580000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>70</v>
+      </c>
+      <c r="D63" s="3">
+        <v>48</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f>(G63+H63)/(G63+H63+I63+J63)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="L63" s="35">
+        <f>(G63+H63*0.5)/(G63+H63+I63+J63)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="M63" s="8">
+        <v>20</v>
+      </c>
+      <c r="N63" s="10">
+        <v>3</v>
+      </c>
+      <c r="O63" s="8">
+        <v>19</v>
+      </c>
+      <c r="P63" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="39">
+        <f>(M63+O63)/(M63+N63+O63+P63)</f>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="R63" s="34">
+        <f>L63*0.66+Q63*0.33</f>
+        <v>0.83237924865831847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3">
+        <v>48</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <f>(G64+H64)/(G64+H64+I64+J64)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L64" s="35">
+        <f>(G64+H64*0.5)/(G64+H64+I64+J64)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="M64" s="8">
+        <v>18</v>
+      </c>
+      <c r="N64" s="8">
+        <v>3</v>
+      </c>
+      <c r="O64" s="8">
+        <v>15</v>
+      </c>
+      <c r="P64" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="28">
+        <f>(M64+O64)/(M64+N64+O64+P64)</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="R64" s="30">
+        <f>L64*0.66+Q64*0.33</f>
+        <v>0.78418118466898956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>104</v>
+      </c>
+      <c r="D65" s="1">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>18</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <f>(G65+H65)/(G65+H65+I65+J65)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L65" s="35">
+        <f>(G65+H65*0.5)/(G65+H65+I65+J65)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M65" s="10">
+        <v>9</v>
+      </c>
+      <c r="N65" s="10">
+        <v>11</v>
+      </c>
+      <c r="O65" s="10">
+        <v>19</v>
+      </c>
+      <c r="P65" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="28">
+        <f>(M65+O65)/(M65+N65+O65+P65)</f>
+        <v>0.7</v>
+      </c>
+      <c r="R65" s="30">
+        <f>L65*0.66+Q65*0.33</f>
+        <v>0.79671428571428571</v>
+      </c>
+      <c r="S65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <f>(G66+H66)/(G66+H66+I66+J66)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L66" s="35">
+        <f>(G66+H66*0.5)/(G66+H66+I66+J66)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M66" s="10">
+        <v>2</v>
+      </c>
+      <c r="N66" s="10">
+        <v>7</v>
+      </c>
+      <c r="O66" s="10">
+        <v>10</v>
+      </c>
+      <c r="P66" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="28">
+        <f>(M66+O66)/(M66+N66+O66+P66)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R66" s="30">
+        <f>L66*0.66+Q66*0.33</f>
+        <v>0.6835714285714285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67" s="3">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>8</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <f>(G67+H67)/(G67+H67+I67+J67)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L67" s="35">
+        <f>(G67+H67*0.5)/(G67+H67+I67+J67)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M67" s="10">
+        <v>6</v>
+      </c>
+      <c r="N67" s="10">
+        <v>0</v>
+      </c>
+      <c r="O67" s="10">
+        <v>5</v>
+      </c>
+      <c r="P67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="28">
+        <f>(M67+O67)/(M67+N67+O67+P67)</f>
+        <v>1</v>
+      </c>
+      <c r="R67" s="30">
+        <f>L67*0.66+Q67*0.33</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68" s="3">
+        <v>48</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="4">
+        <v>24</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2</v>
+      </c>
+      <c r="I68" s="4">
+        <v>5</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6">
+        <f>(G68+H68)/(G68+H68+I68+J68)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="L68" s="35">
+        <f>(G68+H68*0.5)/(G68+H68+I68+J68)</f>
+        <v>0.78125</v>
+      </c>
+      <c r="M68" s="55">
+        <v>20</v>
+      </c>
+      <c r="N68" s="55">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10">
+        <v>20</v>
+      </c>
+      <c r="P68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="32">
+        <f>(M68+O68)/(M68+N68+O68+P68)</f>
+        <v>1</v>
+      </c>
+      <c r="R68" s="33">
+        <f>L68*0.66+Q68*0.33</f>
+        <v>0.84562500000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>70</v>
+      </c>
+      <c r="D69" s="3">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" ref="K68:K69" si="6">(G69+H69)/(G69+H69+I69+J69)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L69" s="35">
+        <f t="shared" ref="L68:L69" si="7">(G69+H69*0.5)/(G69+H69+I69+J69)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M69" s="10">
+        <v>3</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0</v>
+      </c>
+      <c r="O69" s="10">
+        <v>3</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="28">
+        <f t="shared" ref="Q68:Q69" si="8">(M69+O69)/(M69+N69+O69+P69)</f>
+        <v>1</v>
+      </c>
+      <c r="R69" s="30">
+        <f t="shared" ref="R68:R69" si="9">L69*0.66+Q69*0.33</f>
+        <v>0.63461538461538458</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R61">
+  <autoFilter ref="B1:S61">
     <filterColumn colId="1"/>
+    <filterColumn colId="3"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3853,70 +4558,688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>45</v>
+    <row r="1" spans="1:14" s="50" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0.81</v>
+      </c>
+      <c r="H2" s="51">
+        <v>0.78</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="52">
+        <v>1</v>
+      </c>
+      <c r="N2" s="52">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0.81</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0.81</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0.91</v>
+      </c>
+      <c r="N3" s="51">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0.86</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0.86</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>19</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0.93</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0.83</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="N5" s="51">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="N6" s="51">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="51">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="51">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="51">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52">
+        <v>0.97</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0.82</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="51">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="N9" s="51">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0.62</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0.62</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="51">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0.54</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11" s="51">
+        <v>0.43</v>
+      </c>
+      <c r="N11" s="51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.47</v>
+      </c>
+      <c r="H13" s="51">
+        <v>0.47</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13" s="51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N13" s="51">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0.52</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0.52</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="N14" s="51">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.36</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0.36</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="N15" s="51">
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -3926,14 +5249,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3959,12 +5349,12 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1">
       <c r="B4" t="s">

--- a/русский-рейтинг-llm-в-роулплее.xlsx
+++ b/русский-рейтинг-llm-в-роулплее.xlsx
@@ -13,14 +13,14 @@
     <sheet name="фикс токенизатора" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$S$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$S$79</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
   <si>
     <t>temp</t>
   </si>
@@ -127,9 +127,6 @@
     <t>solar-10.7b-instruct-v1.0.Q5_K_S</t>
   </si>
   <si>
-    <t>ggml-c4ai-command-r-35b-v01-iq2_xs</t>
-  </si>
-  <si>
     <t>Meta-Llama-3-8B.Q5_0</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>params</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Meta-Llama-3-8B-Instruct.Q5_0-broken</t>
   </si>
   <si>
@@ -217,12 +211,6 @@
     <t>Расскажи о себе: когда родилась, кем работаешь? Про семью и все остальное про твою жизнь. Пожалуйста поподробнее, мне все интересно.</t>
   </si>
   <si>
-    <t>333+777 = 4110</t>
-  </si>
-  <si>
-    <t>333+777? = 4100, it can't solve it, even with --override-kv tokenizer.ggml.pre=str:command-r</t>
-  </si>
-  <si>
     <t>t/s</t>
   </si>
   <si>
@@ -242,6 +230,42 @@
   </si>
   <si>
     <t>c4ai-command-r-plus.IQ3_M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3333+777 = 4110</t>
+  </si>
+  <si>
+    <t>3333+777 = 4100, it can't solve it, even with --override-kv tokenizer.ggml.pre=str:command-r</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-v01-Q4_K_M</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-35b-v01-iq2_xs</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-v01-iq3_xs</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-v01-q3_k_s</t>
+  </si>
+  <si>
+    <t>c4ai-command-r-v01-iq2_xxs</t>
+  </si>
+  <si>
+    <t>Meta-Llama-3-70B-Instruct-v2.Q4_0</t>
+  </si>
+  <si>
+    <t>Meta-Llama-3-70B-Instruct-64k.i1-Q2_K</t>
+  </si>
+  <si>
+    <t>Meta-Llama-3-70B-Instruct-64k.i1-IQ2_XS</t>
+  </si>
+  <si>
+    <t>saiga_llama3_kto_8b-q5_0</t>
   </si>
 </sst>
 </file>
@@ -290,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +324,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7FFE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -569,13 +605,23 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,6 +629,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE7FFE1"/>
+      <color rgb="FFE5FFE5"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -871,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,19 +952,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>67</v>
+      <c r="E1" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>0</v>
@@ -919,40 +973,40 @@
         <v>8</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="O1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="47" t="s">
+      <c r="Q1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>55</v>
-      </c>
       <c r="R1" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -960,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -985,11 +1039,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K45" si="0">(G2+H2)/(G2+H2+I2+J2)</f>
+        <f t="shared" ref="K2" si="0">(G2+H2)/(G2+H2+I2+J2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="35">
-        <f t="shared" ref="L2" si="1">(G2+H2*0.5)/(G2+H2+I2+J2)</f>
+        <f t="shared" ref="L2:L8" si="1">(G2+H2*0.5)/(G2+H2+I2+2*J2)</f>
         <v>0.92105263157894735</v>
       </c>
       <c r="M2" s="8">
@@ -1005,11 +1059,11 @@
         <v>22</v>
       </c>
       <c r="Q2" s="28">
-        <f t="shared" ref="Q2:Q45" si="2">(M2+O2)/(M2+N2+O2+P2)</f>
+        <f t="shared" ref="Q2" si="2">(M2+O2)/(M2+N2+O2+P2)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R2" s="30">
-        <f t="shared" ref="R2:R45" si="3">L2*0.66+Q2*0.33</f>
+        <f t="shared" ref="R2" si="3">L2*0.66+Q2*0.33</f>
         <v>0.64456140350877189</v>
       </c>
     </row>
@@ -1017,8 +1071,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
+      <c r="B3" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1046,8 +1100,8 @@
         <f>(G3+H3)/(G3+H3+I3+J3)</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="L3" s="38">
-        <f>(G3+H3*0.5)/(G3+H3+I3+J3)</f>
+      <c r="L3" s="35">
+        <f>(G3+H3*0.5)/(G3+H3+I3+2*J3)</f>
         <v>0.81666666666666665</v>
       </c>
       <c r="M3" s="9">
@@ -1076,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1105,8 +1159,8 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="L4" s="35">
-        <f>(G4+H4*0.5)/(G4+H4+I4+J4)</f>
-        <v>0.8529411764705882</v>
+        <f>(G4+H4*0.5)/(G4+H4+I4+2*J4)</f>
+        <v>0.80555555555555558</v>
       </c>
       <c r="M4" s="9">
         <v>12</v>
@@ -1126,7 +1180,7 @@
       </c>
       <c r="R4" s="30">
         <f>L4*0.66+Q4*0.33</f>
-        <v>0.66270861833105343</v>
+        <v>0.63143410852713189</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1134,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1163,8 +1217,8 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="L5" s="35">
-        <f>(G5+H5*0.5)/(G5+H5+I5+J5)</f>
-        <v>0.61111111111111116</v>
+        <f>(G5+H5*0.5)/(G5+H5+I5+2*J5)</f>
+        <v>0.52380952380952384</v>
       </c>
       <c r="M5" s="9">
         <v>9</v>
@@ -1184,7 +1238,7 @@
       </c>
       <c r="R5" s="30">
         <f>L5*0.66+Q5*0.33</f>
-        <v>0.48583333333333339</v>
+        <v>0.42821428571428577</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1192,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1220,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="35">
-        <f>(G6+H6*0.5)/(G6+H6+I6+J6)</f>
+        <f>(G6+H6*0.5)/(G6+H6+I6+2*J6)</f>
         <v>1</v>
       </c>
       <c r="M6" s="9">
@@ -1248,8 +1302,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
+      <c r="B7" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1277,7 +1331,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="L7" s="36">
-        <f>(G7+H7*0.5)/(G7+H7+I7+J7)</f>
+        <f>(G7+H7*0.5)/(G7+H7+I7+2*J7)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="M7" s="9">
@@ -1296,7 +1350,7 @@
         <f>(M7+O7)/(M7+N7+O7+P7)</f>
         <v>0.3</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="34">
         <f>L7*0.66+Q7*0.33</f>
         <v>0.64900000000000002</v>
       </c>
@@ -1306,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1334,7 +1388,7 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="L8" s="35">
-        <f>(G8+H8*0.5)/(G8+H8+I8+J8)</f>
+        <f>(G8+H8*0.5)/(G8+H8+I8+2*J8)</f>
         <v>0.76315789473684215</v>
       </c>
       <c r="M8" s="9">
@@ -1363,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1391,8 +1445,8 @@
         <v>0.65</v>
       </c>
       <c r="L9" s="35">
-        <f>(G9+H9*0.5)/(G9+H9+I9+J9)</f>
-        <v>0.4</v>
+        <f>(G9+H9*0.5)/(G9+H9+I9+2*J9)</f>
+        <v>0.38095238095238093</v>
       </c>
       <c r="M9" s="9">
         <v>9</v>
@@ -1412,7 +1466,7 @@
       </c>
       <c r="R9" s="30">
         <f>L9*0.66+Q9*0.33</f>
-        <v>0.3795</v>
+        <v>0.36692857142857144</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1420,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1449,7 +1503,7 @@
         <v>0.82352941176470584</v>
       </c>
       <c r="L10" s="35">
-        <f>(G10+H10*0.5)/(G10+H10+I10+J10)</f>
+        <f>(G10+H10*0.5)/(G10+H10+I10+2*J10)</f>
         <v>0.82352941176470584</v>
       </c>
       <c r="M10" s="25">
@@ -1480,8 +1534,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
+      <c r="B11" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1510,7 +1564,7 @@
         <v>0.75</v>
       </c>
       <c r="L11" s="35">
-        <f>(G11+H11*0.5)/(G11+H11+I11+J11)</f>
+        <f>(G11+H11*0.5)/(G11+H11+I11+2*J11)</f>
         <v>0.75</v>
       </c>
       <c r="M11" s="25">
@@ -1542,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1571,7 +1625,7 @@
         <v>0.6</v>
       </c>
       <c r="L12" s="35">
-        <f>(G12+H12*0.5)/(G12+H12+I12+J12)</f>
+        <f>(G12+H12*0.5)/(G12+H12+I12+2*J12)</f>
         <v>0.6</v>
       </c>
       <c r="M12" s="25">
@@ -1603,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -1632,8 +1686,8 @@
         <v>0.11764705882352941</v>
       </c>
       <c r="L13" s="35">
-        <f>(G13+H13*0.5)/(G13+H13+I13+J13)</f>
-        <v>0.11764705882352941</v>
+        <f>(G13+H13*0.5)/(G13+H13+I13+2*J13)</f>
+        <v>0.1</v>
       </c>
       <c r="M13" s="25">
         <v>9</v>
@@ -1653,7 +1707,7 @@
       </c>
       <c r="R13" s="30">
         <f>L13*0.66+Q13*0.33</f>
-        <v>0.25089705882352942</v>
+        <v>0.23925000000000002</v>
       </c>
       <c r="S13" t="s">
         <v>31</v>
@@ -1692,8 +1746,8 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L14" s="35">
-        <f>(G14+H14*0.5)/(G14+H14+I14+J14)</f>
-        <v>0.66666666666666663</v>
+        <f>(G14+H14*0.5)/(G14+H14+I14+2*J14)</f>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M14" s="2">
         <v>6</v>
@@ -1713,7 +1767,7 @@
       </c>
       <c r="R14" s="30">
         <f>L14*0.66+Q14*0.33</f>
-        <v>0.52249999999999996</v>
+        <v>0.45210000000000006</v>
       </c>
       <c r="S14" s="40" t="s">
         <v>27</v>
@@ -1723,7 +1777,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C15">
@@ -1752,8 +1806,8 @@
         <v>0.61904761904761907</v>
       </c>
       <c r="L15" s="35">
-        <f>(G15+H15*0.5)/(G15+H15+I15+J15)</f>
-        <v>0.61904761904761907</v>
+        <f>(G15+H15*0.5)/(G15+H15+I15+2*J15)</f>
+        <v>0.59090909090909094</v>
       </c>
       <c r="M15" s="2">
         <v>7</v>
@@ -1773,7 +1827,7 @@
       </c>
       <c r="R15" s="30">
         <f>L15*0.66+Q15*0.33</f>
-        <v>0.57357142857142862</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="S15" s="40" t="s">
         <v>27</v>
@@ -1812,7 +1866,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="35">
-        <f>(G16+H16*0.5)/(G16+H16+I16+J16)</f>
+        <f>(G16+H16*0.5)/(G16+H16+I16+2*J16)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="M16" s="25">
@@ -1872,7 +1926,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L17" s="35">
-        <f>(G17+H17*0.5)/(G17+H17+I17+J17)</f>
+        <f>(G17+H17*0.5)/(G17+H17+I17+2*J17)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M17" s="25">
@@ -1933,7 +1987,7 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="L18" s="35">
-        <f>(G18+H18*0.5)/(G18+H18+I18+J18)</f>
+        <f>(G18+H18*0.5)/(G18+H18+I18+2*J18)</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="M18" s="9">
@@ -1964,7 +2018,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C19">
@@ -1994,7 +2048,7 @@
         <v>0.47368421052631576</v>
       </c>
       <c r="L19" s="35">
-        <f>(G19+H19*0.5)/(G19+H19+I19+J19)</f>
+        <f>(G19+H19*0.5)/(G19+H19+I19+2*J19)</f>
         <v>0.47368421052631576</v>
       </c>
       <c r="M19" s="9">
@@ -2055,7 +2109,7 @@
         <v>0.625</v>
       </c>
       <c r="L20" s="35">
-        <f>(G20+H20*0.5)/(G20+H20+I20+J20)</f>
+        <f>(G20+H20*0.5)/(G20+H20+I20+2*J20)</f>
         <v>0.625</v>
       </c>
       <c r="M20" s="9">
@@ -2116,8 +2170,8 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="L21" s="35">
-        <f>(G21+H21*0.5)/(G21+H21+I21+J21)</f>
-        <v>0.36842105263157893</v>
+        <f>(G21+H21*0.5)/(G21+H21+I21+2*J21)</f>
+        <v>0.35</v>
       </c>
       <c r="M21" s="9">
         <v>9</v>
@@ -2137,7 +2191,7 @@
       </c>
       <c r="R21" s="30">
         <f>L21*0.66+Q21*0.33</f>
-        <v>0.35040789473684208</v>
+        <v>0.33825</v>
       </c>
       <c r="S21" t="s">
         <v>31</v>
@@ -2148,7 +2202,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2177,8 +2231,8 @@
         <v>0.58823529411764708</v>
       </c>
       <c r="L22" s="35">
-        <f>(G22+H22*0.5)/(G22+H22+I22+J22)</f>
-        <v>0.58823529411764708</v>
+        <f>(G22+H22*0.5)/(G22+H22+I22+2*J22)</f>
+        <v>0.47619047619047616</v>
       </c>
       <c r="M22" s="9">
         <v>14</v>
@@ -2198,7 +2252,7 @@
       </c>
       <c r="R22" s="30">
         <f>L22*0.66+Q22*0.33</f>
-        <v>0.53673529411764709</v>
+        <v>0.4627857142857143</v>
       </c>
       <c r="S22" t="s">
         <v>31</v>
@@ -2208,8 +2262,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
+      <c r="B23" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2236,9 +2290,9 @@
         <f>(G23+H23)/(G23+H23+I23+J23)</f>
         <v>0.6</v>
       </c>
-      <c r="L23" s="38">
-        <f>(G23+H23*0.5)/(G23+H23+I23+J23)</f>
-        <v>0.6</v>
+      <c r="L23" s="35">
+        <f>(G23+H23*0.5)/(G23+H23+I23+2*J23)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M23" s="9">
         <v>17</v>
@@ -2258,7 +2312,7 @@
       </c>
       <c r="R23" s="34">
         <f>L23*0.66+Q23*0.33</f>
-        <v>0.64349999999999996</v>
+        <v>0.62464285714285706</v>
       </c>
       <c r="S23" t="s">
         <v>31</v>
@@ -2269,7 +2323,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2297,8 +2351,8 @@
         <v>0.34482758620689657</v>
       </c>
       <c r="L24" s="35">
-        <f>(G24+H24*0.5)/(G24+H24+I24+J24)</f>
-        <v>0.34482758620689657</v>
+        <f>(G24+H24*0.5)/(G24+H24+I24+2*J24)</f>
+        <v>0.32258064516129031</v>
       </c>
       <c r="M24" s="9">
         <v>13</v>
@@ -2318,7 +2372,7 @@
       </c>
       <c r="R24" s="30">
         <f>L24*0.66+Q24*0.33</f>
-        <v>0.46683620689655175</v>
+        <v>0.45215322580645162</v>
       </c>
       <c r="S24" t="s">
         <v>31</v>
@@ -2329,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2357,8 +2411,8 @@
         <v>0.13636363636363635</v>
       </c>
       <c r="L25" s="35">
-        <f>(G25+H25*0.5)/(G25+H25+I25+J25)</f>
-        <v>0.13636363636363635</v>
+        <f>(G25+H25*0.5)/(G25+H25+I25+2*J25)</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M25" s="9">
         <v>8</v>
@@ -2378,7 +2432,7 @@
       </c>
       <c r="R25" s="30">
         <f>L25*0.66+Q25*0.33</f>
-        <v>0.24675</v>
+        <v>0.23008333333333333</v>
       </c>
       <c r="S25" t="s">
         <v>31</v>
@@ -2388,59 +2442,61 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
+      <c r="B26" s="55" t="s">
+        <v>81</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1">
-        <v>5.7</v>
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>14</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
       </c>
       <c r="K26" s="6">
         <f>(G26+H26)/(G26+H26+I26+J26)</f>
-        <v>0.75</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="L26" s="35">
-        <f>(G26+H26*0.5)/(G26+H26+I26+J26)</f>
-        <v>0.72499999999999998</v>
+        <f>(G26+H26*0.5)/(G26+H26+I26+2*J26)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M26" s="9">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N26" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O26" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P26" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="28">
         <f>(M26+O26)/(M26+N26+O26+P26)</f>
-        <v>0.92500000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="R26" s="30">
         <f>L26*0.66+Q26*0.33</f>
-        <v>0.78374999999999995</v>
-      </c>
-      <c r="S26" s="9"/>
+        <v>0.60499999999999998</v>
+      </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27">
@@ -2456,27 +2512,27 @@
         <v>5.7</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4">
-        <v>8</v>
-      </c>
-      <c r="H27" s="4">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4">
-        <v>7</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" s="6">
         <f>(G27+H27)/(G27+H27+I27+J27)</f>
-        <v>0.57894736842105265</v>
+        <v>0.75</v>
       </c>
       <c r="L27" s="35">
-        <f>(G27+H27*0.5)/(G27+H27+I27+J27)</f>
-        <v>0.5</v>
+        <f>(G27+H27*0.5)/(G27+H27+I27+2*J27)</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M27" s="9">
         <v>19</v>
@@ -2485,25 +2541,26 @@
         <v>1</v>
       </c>
       <c r="O27" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P27" s="9">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="28">
         <f>(M27+O27)/(M27+N27+O27+P27)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R27" s="34">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R27" s="30">
         <f>L27*0.66+Q27*0.33</f>
-        <v>0.627</v>
-      </c>
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C28">
@@ -2513,49 +2570,48 @@
         <v>5.7</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
       </c>
       <c r="K28" s="6">
         <f>(G28+H28)/(G28+H28+I28+J28)</f>
-        <v>0.3888888888888889</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="L28" s="35">
-        <f>(G28+H28*0.5)/(G28+H28+I28+J28)</f>
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="M28" s="8">
-        <v>18</v>
-      </c>
-      <c r="N28" s="10">
-        <v>2</v>
-      </c>
-      <c r="O28" s="11">
-        <v>16</v>
+        <f>(G28+H28*0.5)/(G28+H28+I28+2*J28)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M28" s="9">
+        <v>19</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <v>17</v>
       </c>
       <c r="P28" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="39">
         <f>(M28+O28)/(M28+N28+O28+P28)</f>
-        <v>0.85</v>
-      </c>
-      <c r="R28" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="R28" s="34">
         <f>L28*0.66+Q28*0.33</f>
-        <v>0.51883333333333337</v>
-      </c>
-      <c r="S28" s="11"/>
+        <v>0.61050000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29">
@@ -2571,35 +2627,35 @@
         <v>5.7</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29" s="6">
         <f>(G29+H29)/(G29+H29+I29+J29)</f>
-        <v>0.18181818181818182</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L29" s="35">
-        <f>(G29+H29*0.5)/(G29+H29+I29+J29)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M29" s="10">
-        <v>11</v>
+        <f>(G29+H29*0.5)/(G29+H29+I29+2*J29)</f>
+        <v>0.28260869565217389</v>
+      </c>
+      <c r="M29" s="8">
+        <v>18</v>
       </c>
       <c r="N29" s="10">
-        <v>9</v>
-      </c>
-      <c r="O29" s="9">
+        <v>2</v>
+      </c>
+      <c r="O29" s="11">
         <v>16</v>
       </c>
       <c r="P29" s="9">
@@ -2607,70 +2663,71 @@
       </c>
       <c r="Q29" s="28">
         <f>(M29+O29)/(M29+N29+O29+P29)</f>
-        <v>0.67500000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="R29" s="30">
         <f>L29*0.66+Q29*0.33</f>
-        <v>0.28275000000000006</v>
-      </c>
-      <c r="S29" s="9"/>
+        <v>0.46702173913043477</v>
+      </c>
+      <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30" s="1">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
         <v>5</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
       </c>
       <c r="K30" s="6">
         <f>(G30+H30)/(G30+H30+I30+J30)</f>
-        <v>0.7</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="L30" s="35">
-        <f>(G30+H30*0.5)/(G30+H30+I30+J30)</f>
-        <v>0.7</v>
-      </c>
-      <c r="M30" s="9">
-        <v>1</v>
-      </c>
-      <c r="N30" s="9">
-        <v>19</v>
+        <f>(G30+H30*0.5)/(G30+H30+I30+2*J30)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M30" s="10">
+        <v>11</v>
+      </c>
+      <c r="N30" s="10">
+        <v>9</v>
       </c>
       <c r="O30" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P30" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="28">
         <f>(M30+O30)/(M30+N30+O30+P30)</f>
-        <v>0.4</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="R30" s="30">
         <f>L30*0.66+Q30*0.33</f>
-        <v>0.59399999999999997</v>
-      </c>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31">
@@ -2686,54 +2743,54 @@
         <v>6.5</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>5</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>8</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" s="6">
         <f>(G31+H31)/(G31+H31+I31+J31)</f>
-        <v>0.35714285714285715</v>
+        <v>0.7</v>
       </c>
       <c r="L31" s="35">
-        <f>(G31+H31*0.5)/(G31+H31+I31+J31)</f>
-        <v>0.35714285714285715</v>
+        <f>(G31+H31*0.5)/(G31+H31+I31+2*J31)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O31" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P31" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="28">
         <f>(M31+O31)/(M31+N31+O31+P31)</f>
-        <v>0.32500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="R31" s="30">
         <f>L31*0.66+Q31*0.33</f>
-        <v>0.34296428571428572</v>
+        <v>0.57200000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C32">
@@ -2743,47 +2800,47 @@
         <v>6.5</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6">
         <f>(G32+H32)/(G32+H32+I32+J32)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="L32" s="35">
-        <f>(G32+H32*0.5)/(G32+H32+I32+J32)</f>
-        <v>3.5714285714285712E-2</v>
+        <f>(G32+H32*0.5)/(G32+H32+I32+2*J32)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O32" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P32" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="28">
         <f>(M32+O32)/(M32+N32+O32+P32)</f>
-        <v>0.4</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R32" s="30">
         <f>L32*0.66+Q32*0.33</f>
-        <v>0.15557142857142858</v>
+        <v>0.32725000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2800,47 +2857,47 @@
         <v>6.5</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33" s="6">
         <f>(G33+H33)/(G33+H33+I33+J33)</f>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="L33" s="35">
-        <f>(G33+H33*0.5)/(G33+H33+I33+J33)</f>
-        <v>0</v>
+        <f>(G33+H33*0.5)/(G33+H33+I33+2*J33)</f>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="M33" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O33" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P33" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="28">
         <f>(M33+O33)/(M33+N33+O33+P33)</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="R33" s="30">
         <f>L33*0.66+Q33*0.33</f>
-        <v>0.12375</v>
+        <v>0.15033333333333335</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -2848,56 +2905,56 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1">
-        <v>26.3</v>
+        <v>6.5</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="6">
         <f>(G34+H34)/(G34+H34+I34+J34)</f>
-        <v>0.57894736842105265</v>
+        <v>0</v>
       </c>
       <c r="L34" s="35">
-        <f>(G34+H34*0.5)/(G34+H34+I34+J34)</f>
-        <v>0.47368421052631576</v>
+        <f>(G34+H34*0.5)/(G34+H34+I34+2*J34)</f>
+        <v>0</v>
       </c>
       <c r="M34" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O34" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P34" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q34" s="28">
         <f>(M34+O34)/(M34+N34+O34+P34)</f>
-        <v>0.27500000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="R34" s="30">
         <f>L34*0.66+Q34*0.33</f>
-        <v>0.40338157894736842</v>
+        <v>0.12375</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -2914,54 +2971,54 @@
         <v>26.3</v>
       </c>
       <c r="F35" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" s="6">
         <f>(G35+H35)/(G35+H35+I35+J35)</f>
-        <v>0.57692307692307687</v>
+        <v>0.57894736842105265</v>
       </c>
       <c r="L35" s="35">
-        <f>(G35+H35*0.5)/(G35+H35+I35+J35)</f>
-        <v>0.53846153846153844</v>
+        <f>(G35+H35*0.5)/(G35+H35+I35+2*J35)</f>
+        <v>0.39130434782608697</v>
       </c>
       <c r="M35" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N35" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O35" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P35" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q35" s="28">
         <f>(M35+O35)/(M35+N35+O35+P35)</f>
-        <v>0.42499999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R35" s="30">
         <f>L35*0.66+Q35*0.33</f>
-        <v>0.4956346153846154</v>
+        <v>0.34901086956521743</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C36">
@@ -2971,7 +3028,7 @@
         <v>26.3</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>13</v>
@@ -2983,35 +3040,35 @@
         <v>9</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" s="6">
         <f>(G36+H36)/(G36+H36+I36+J36)</f>
-        <v>0.55555555555555558</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="L36" s="35">
-        <f>(G36+H36*0.5)/(G36+H36+I36+J36)</f>
-        <v>0.51851851851851849</v>
+        <f>(G36+H36*0.5)/(G36+H36+I36+2*J36)</f>
+        <v>0.5</v>
       </c>
       <c r="M36" s="9">
+        <v>8</v>
+      </c>
+      <c r="N36" s="9">
+        <v>12</v>
+      </c>
+      <c r="O36" s="9">
+        <v>9</v>
+      </c>
+      <c r="P36" s="9">
         <v>11</v>
-      </c>
-      <c r="N36" s="9">
-        <v>9</v>
-      </c>
-      <c r="O36" s="9">
-        <v>10</v>
-      </c>
-      <c r="P36" s="9">
-        <v>10</v>
       </c>
       <c r="Q36" s="28">
         <f>(M36+O36)/(M36+N36+O36+P36)</f>
-        <v>0.52500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="R36" s="30">
         <f>L36*0.66+Q36*0.33</f>
-        <v>0.51547222222222222</v>
+        <v>0.47025000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3028,47 +3085,47 @@
         <v>26.3</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" s="6">
         <f>(G37+H37)/(G37+H37+I37+J37)</f>
-        <v>0.30769230769230771</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="L37" s="35">
-        <f>(G37+H37*0.5)/(G37+H37+I37+J37)</f>
-        <v>0.26923076923076922</v>
+        <f>(G37+H37*0.5)/(G37+H37+I37+2*J37)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="M37" s="9">
+        <v>11</v>
+      </c>
+      <c r="N37" s="9">
         <v>9</v>
       </c>
-      <c r="N37" s="9">
-        <v>11</v>
-      </c>
       <c r="O37" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P37" s="9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="28">
         <f>(M37+O37)/(M37+N37+O37+P37)</f>
-        <v>0.36170212765957449</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R37" s="30">
         <f>L37*0.66+Q37*0.33</f>
-        <v>0.29705400981996732</v>
+        <v>0.48125000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3076,56 +3133,56 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1">
-        <v>7.9</v>
+        <v>26.3</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K38" s="6">
         <f>(G38+H38)/(G38+H38+I38+J38)</f>
-        <v>0.7</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="L38" s="35">
-        <f>(G38+H38*0.5)/(G38+H38+I38+J38)</f>
-        <v>0.7</v>
-      </c>
-      <c r="M38" s="8">
+        <f>(G38+H38*0.5)/(G38+H38+I38+2*J38)</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="M38" s="9">
+        <v>9</v>
+      </c>
+      <c r="N38" s="9">
+        <v>11</v>
+      </c>
+      <c r="O38" s="9">
         <v>8</v>
       </c>
-      <c r="N38" s="10">
-        <v>12</v>
-      </c>
-      <c r="O38" s="8">
-        <v>20</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0</v>
+      <c r="P38" s="9">
+        <v>19</v>
       </c>
       <c r="Q38" s="28">
         <f>(M38+O38)/(M38+N38+O38+P38)</f>
-        <v>0.7</v>
+        <v>0.36170212765957449</v>
       </c>
       <c r="R38" s="30">
         <f>L38*0.66+Q38*0.33</f>
-        <v>0.69299999999999995</v>
+        <v>0.26839396019217576</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3142,54 +3199,54 @@
         <v>7.9</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" s="6">
         <f>(G39+H39)/(G39+H39+I39+J39)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L39" s="35">
-        <f>(G39+H39*0.5)/(G39+H39+I39+J39)</f>
-        <v>0.4</v>
+        <f>(G39+H39*0.5)/(G39+H39+I39+2*J39)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M39" s="8">
-        <v>9</v>
-      </c>
-      <c r="N39" s="24">
-        <v>11</v>
-      </c>
-      <c r="O39" s="23">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="N39" s="10">
+        <v>12</v>
+      </c>
+      <c r="O39" s="8">
+        <v>20</v>
       </c>
       <c r="P39" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="28">
         <f>(M39+O39)/(M39+N39+O39+P39)</f>
         <v>0.7</v>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="30">
         <f>L39*0.66+Q39*0.33</f>
-        <v>0.495</v>
+        <v>0.6160000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C40">
@@ -3199,47 +3256,47 @@
         <v>7.9</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
         <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>8</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
       </c>
       <c r="K40" s="6">
         <f>(G40+H40)/(G40+H40+I40+J40)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L40" s="35">
-        <f>(G40+H40*0.5)/(G40+H40+I40+J40)</f>
-        <v>0.2</v>
+        <f>(G40+H40*0.5)/(G40+H40+I40+2*J40)</f>
+        <v>0.36363636363636365</v>
       </c>
       <c r="M40" s="8">
-        <v>10</v>
-      </c>
-      <c r="N40" s="10">
-        <v>10</v>
-      </c>
-      <c r="O40" s="8">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="N40" s="24">
+        <v>11</v>
+      </c>
+      <c r="O40" s="23">
+        <v>19</v>
       </c>
       <c r="P40" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="28">
         <f>(M40+O40)/(M40+N40+O40+P40)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R40" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="R40" s="34">
         <f>L40*0.66+Q40*0.33</f>
-        <v>0.3135</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3256,47 +3313,47 @@
         <v>7.9</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="6">
         <f>(G41+H41)/(G41+H41+I41+J41)</f>
-        <v>6.25E-2</v>
+        <v>0.2</v>
       </c>
       <c r="L41" s="35">
-        <f>(G41+H41*0.5)/(G41+H41+I41+J41)</f>
-        <v>3.125E-2</v>
+        <f>(G41+H41*0.5)/(G41+H41+I41+2*J41)</f>
+        <v>0.2</v>
       </c>
       <c r="M41" s="8">
+        <v>10</v>
+      </c>
+      <c r="N41" s="10">
+        <v>10</v>
+      </c>
+      <c r="O41" s="8">
+        <v>12</v>
+      </c>
+      <c r="P41" s="8">
         <v>8</v>
-      </c>
-      <c r="N41" s="10">
-        <v>12</v>
-      </c>
-      <c r="O41" s="10">
-        <v>13</v>
-      </c>
-      <c r="P41" s="23">
-        <v>7</v>
       </c>
       <c r="Q41" s="28">
         <f>(M41+O41)/(M41+N41+O41+P41)</f>
-        <v>0.52500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R41" s="30">
         <f>L41*0.66+Q41*0.33</f>
-        <v>0.19387500000000002</v>
+        <v>0.3135</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3304,125 +3361,103 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>13</v>
       </c>
-      <c r="E42" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
-      </c>
-      <c r="I42">
+      <c r="J42">
         <v>2</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
       </c>
       <c r="K42" s="6">
         <f>(G42+H42)/(G42+H42+I42+J42)</f>
-        <v>0.72727272727272729</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L42" s="35">
-        <f>(G42+H42*0.5)/(G42+H42+I42+J42)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M42" s="10">
-        <v>15</v>
+        <f>(G42+H42*0.5)/(G42+H42+I42+2*J42)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="M42" s="8">
+        <v>8</v>
       </c>
       <c r="N42" s="10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O42" s="10">
-        <v>2</v>
-      </c>
-      <c r="P42" s="10">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="P42" s="23">
+        <v>7</v>
       </c>
       <c r="Q42" s="28">
         <f>(M42+O42)/(M42+N42+O42+P42)</f>
-        <v>0.42499999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="R42" s="30">
         <f>L42*0.66+Q42*0.33</f>
-        <v>0.62025000000000008</v>
+        <v>0.19158333333333336</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>35</v>
+      <c r="B43" s="55" t="s">
+        <v>77</v>
       </c>
       <c r="C43">
         <v>35</v>
       </c>
       <c r="D43" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="4">
-        <v>11</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4">
-        <v>6</v>
-      </c>
-      <c r="J43" s="4">
-        <v>4</v>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
       </c>
       <c r="K43" s="6">
         <f>(G43+H43)/(G43+H43+I43+J43)</f>
-        <v>0.52380952380952384</v>
+        <v>0.6</v>
       </c>
       <c r="L43" s="35">
-        <f>(G43+H43*0.5)/(G43+H43+I43+J43)</f>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="M43" s="10">
-        <v>13</v>
-      </c>
-      <c r="N43" s="10">
-        <v>7</v>
-      </c>
-      <c r="O43" s="10">
-        <v>3</v>
-      </c>
-      <c r="P43" s="10">
-        <v>17</v>
-      </c>
-      <c r="Q43" s="28">
-        <f>(M43+O43)/(M43+N43+O43+P43)</f>
-        <v>0.4</v>
-      </c>
-      <c r="R43" s="30">
-        <f>L43*0.66+Q43*0.33</f>
-        <v>0.47771428571428576</v>
-      </c>
-      <c r="S43" t="s">
-        <v>66</v>
-      </c>
+        <f>(G43+H43*0.5)/(G43+H43+I43+2*J43)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="30"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>35</v>
@@ -3431,55 +3466,58 @@
         <v>13</v>
       </c>
       <c r="E44" s="1">
-        <v>2.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4">
         <v>4</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>10</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
       </c>
       <c r="K44" s="6">
         <f>(G44+H44)/(G44+H44+I44+J44)</f>
-        <v>0.11764705882352941</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="L44" s="35">
-        <f>(G44+H44*0.5)/(G44+H44+I44+J44)</f>
-        <v>0.11764705882352941</v>
+        <f>(G44+H44*0.5)/(G44+H44+I44+2*J44)</f>
+        <v>0.5</v>
       </c>
       <c r="M44" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N44" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O44" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q44" s="28">
         <f>(M44+O44)/(M44+N44+O44+P44)</f>
-        <v>0.25</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="R44" s="30">
         <f>L44*0.66+Q44*0.33</f>
-        <v>0.16014705882352942</v>
+        <v>0.47025000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>35</v>
+      <c r="B45" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -3488,47 +3526,53 @@
         <v>13</v>
       </c>
       <c r="E45" s="1">
-        <v>2.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>20</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>8</v>
+      </c>
+      <c r="J45" s="4">
         <v>5</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
       </c>
       <c r="K45" s="6">
         <f>(G45+H45)/(G45+H45+I45+J45)</f>
-        <v>0.16666666666666666</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="L45" s="35">
-        <f>(G45+H45*0.5)/(G45+H45+I45+J45)</f>
-        <v>0.16666666666666666</v>
+        <f>(G45+H45*0.5)/(G45+H45+I45+2*J45)</f>
+        <v>0.52631578947368418</v>
       </c>
       <c r="M45" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N45" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O45" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45" s="10">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="28">
         <f>(M45+O45)/(M45+N45+O45+P45)</f>
-        <v>0.14285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="R45" s="30">
         <f>L45*0.66+Q45*0.33</f>
-        <v>0.15714285714285714</v>
+        <v>0.47936842105263155</v>
+      </c>
+      <c r="S45" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3536,28 +3580,59 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D46" s="1">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4.5999999999999996</v>
       </c>
       <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>10</v>
+      </c>
+      <c r="J46" s="4">
+        <v>7</v>
+      </c>
+      <c r="K46" s="6">
+        <f>(G46+H46)/(G46+H46+I46+J46)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="L46" s="35">
+        <f>(G46+H46*0.5)/(G46+H46+I46+2*J46)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M46" s="10">
         <v>9</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="Q46" s="28" t="e">
+      <c r="N46" s="10">
+        <v>11</v>
+      </c>
+      <c r="O46" s="10">
+        <v>1</v>
+      </c>
+      <c r="P46" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="28">
         <f>(M46+O46)/(M46+N46+O46+P46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="30" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="R46" s="30">
         <f>L46*0.66+Q46*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" t="s">
-        <v>10</v>
+        <v>0.13326923076923078</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3565,28 +3640,59 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D47" s="1">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6">
+        <f>(G47+H47)/(G47+H47+I47+J47)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L47" s="35">
+        <f>(G47+H47*0.5)/(G47+H47+I47+2*J47)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M47" s="10">
+        <v>1</v>
+      </c>
+      <c r="N47" s="10">
         <v>6</v>
       </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="Q47" s="28" t="e">
-        <f t="shared" ref="Q47:Q59" si="4">(M47+O47)/(M47+N47+O47+P47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R47" s="30" t="e">
-        <f t="shared" ref="R47:R59" si="5">L47*0.66+Q47*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" t="s">
-        <v>10</v>
+      <c r="O47" s="10">
+        <v>1</v>
+      </c>
+      <c r="P47" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="28">
+        <f>(M47+O47)/(M47+N47+O47+P47)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R47" s="30">
+        <f>L47*0.66+Q47*0.33</f>
+        <v>0.12047619047619047</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3594,57 +3700,122 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D48" s="1">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.1</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="Q48" s="28" t="e">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4">
+        <v>10</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <f>(G48+H48)/(G48+H48+I48+J48)</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="35">
+        <f>(G48+H48*0.5)/(G48+H48+I48+2*J48)</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
+        <v>16</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="28">
         <f>(M48+O48)/(M48+N48+O48+P48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="R48" s="30">
         <f>L48*0.66+Q48*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" t="s">
-        <v>10</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>36</v>
+      <c r="B49" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D49" s="1">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>21</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
         <v>6</v>
       </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="Q49" s="28" t="e">
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6">
+        <f>(G49+H49)/(G49+H49+I49+J49)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L49" s="35">
+        <f>(G49+H49*0.5)/(G49+H49+I49+2*J49)</f>
+        <v>0.72413793103448276</v>
+      </c>
+      <c r="M49" s="10">
+        <v>11</v>
+      </c>
+      <c r="N49" s="10">
+        <v>9</v>
+      </c>
+      <c r="O49" s="10">
+        <v>1</v>
+      </c>
+      <c r="P49" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="28">
         <f>(M49+O49)/(M49+N49+O49+P49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="30" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="R49" s="30">
         <f>L49*0.66+Q49*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.57693103448275862</v>
       </c>
       <c r="S49" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3652,103 +3823,208 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D50" s="1">
-        <v>5.8</v>
+        <v>22</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.1</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="Q50" s="28" t="e">
+        <v>4</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6">
+        <f>(G50+H50)/(G50+H50+I50+J50)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L50" s="35">
+        <f>(G50+H50*0.5)/(G50+H50+I50+2*J50)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M50" s="10">
+        <v>10</v>
+      </c>
+      <c r="N50" s="10">
+        <v>10</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q50" s="28">
         <f>(M50+O50)/(M50+N50+O50+P50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R50" s="30" t="e">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="R50" s="30">
         <f>L50*0.66+Q50*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51">
+        <v>0.2541891891891892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="4" customFormat="1">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="6"/>
-      <c r="Q51" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R51" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B51" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="4">
+        <v>35</v>
+      </c>
+      <c r="D51" s="60">
+        <v>15</v>
+      </c>
+      <c r="E51" s="60">
+        <v>2.9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="K51" s="58">
+        <f>(G51+H51)/(G51+H51+I51+J51)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L51" s="38">
+        <f>(G51+H51*0.5)/(G51+H51+I51+2*J51)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>37</v>
+      <c r="B52" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1">
-        <v>5.8</v>
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.4</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="6"/>
-      <c r="Q52" s="28" t="e">
-        <f>(M52+O52)/(M52+N52+O52+P52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R52" s="30" t="e">
-        <f>L52*0.66+Q52*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G52" s="4">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>6</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6">
+        <f>(G52+H52)/(G52+H52+I52+J52)</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="L52" s="35">
+        <f>(G52+H52*0.5)/(G52+H52+I52+2*J52)</f>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="30"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>37</v>
+      <c r="B53" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1">
-        <v>5.8</v>
+        <v>48</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.21</v>
       </c>
       <c r="F53" t="s">
-        <v>5</v>
-      </c>
-      <c r="K53" s="6"/>
-      <c r="Q53" s="28" t="e">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <f>(G53+H53)/(G53+H53+I53+J53)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L53" s="35">
+        <f>(G53+H53*0.5)/(G53+H53+I53+2*J53)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="M53" s="10">
+        <v>9</v>
+      </c>
+      <c r="N53" s="10">
+        <v>11</v>
+      </c>
+      <c r="O53" s="10">
+        <v>19</v>
+      </c>
+      <c r="P53" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="28">
         <f>(M53+O53)/(M53+N53+O53+P53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R53" s="30" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="R53" s="30">
         <f>L53*0.66+Q53*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="S53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -3756,49 +4032,59 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D54" s="1">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.21</v>
+      </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54" s="6">
         <f>(G54+H54)/(G54+H54+I54+J54)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L54" s="35">
-        <f>(G54+H54*0.5)/(G54+H54+I54+J54)</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="28" t="e">
+        <f>(G54+H54*0.5)/(G54+H54+I54+2*J54)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M54" s="10">
+        <v>2</v>
+      </c>
+      <c r="N54" s="10">
+        <v>7</v>
+      </c>
+      <c r="O54" s="10">
+        <v>10</v>
+      </c>
+      <c r="P54" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="28">
         <f>(M54+O54)/(M54+N54+O54+P54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R54" s="30" t="e">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R54" s="30">
         <f>L54*0.66+Q54*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.6835714285714285</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -3806,99 +4092,121 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>35</v>
+      </c>
       <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>16</v>
-      </c>
-      <c r="H55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4">
+        <v>5</v>
       </c>
       <c r="K55" s="6">
         <f>(G55+H55)/(G55+H55+I55+J55)</f>
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L55" s="35">
-        <f>(G55+H55*0.5)/(G55+H55+I55+J55)</f>
-        <v>0.92105263157894735</v>
-      </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R55" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>(G55+H55*0.5)/(G55+H55+I55+2*J55)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="M55" s="10">
+        <v>19</v>
+      </c>
+      <c r="N55" s="10">
+        <v>1</v>
+      </c>
+      <c r="O55" s="10">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="28">
+        <f>(M55+O55)/(M55+N55+O55+P55)</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R55" s="30">
+        <f>L55*0.66+Q55*0.33</f>
+        <v>0.34532142857142856</v>
+      </c>
+      <c r="S55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>61</v>
+      <c r="B56" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="7">
-        <v>10</v>
-      </c>
-      <c r="H56" s="7">
-        <v>4</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="4">
+        <v>11</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
       </c>
       <c r="K56" s="6">
         <f>(G56+H56)/(G56+H56+I56+J56)</f>
-        <v>0.875</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="L56" s="35">
-        <f>(G56+H56*0.5)/(G56+H56+I56+J56)</f>
-        <v>0.75</v>
-      </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="28" t="e">
+        <f>(G56+H56*0.5)/(G56+H56+I56+2*J56)</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="M56" s="10">
+        <v>19</v>
+      </c>
+      <c r="N56" s="10">
+        <v>1</v>
+      </c>
+      <c r="O56" s="10">
+        <v>1</v>
+      </c>
+      <c r="P56" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q56" s="28">
         <f>(M56+O56)/(M56+N56+O56+P56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R56" s="30" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R56" s="30">
         <f>L56*0.66+Q56*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="S56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -3906,49 +4214,60 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>7</v>
-      </c>
-      <c r="D57" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>35</v>
+      </c>
       <c r="F57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
         <v>4</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
+        <v>6</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1</v>
       </c>
       <c r="K57" s="6">
         <f>(G57+H57)/(G57+H57+I57+J57)</f>
-        <v>0.7142857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="L57" s="35">
-        <f>(G57+H57*0.5)/(G57+H57+I57+J57)</f>
-        <v>0.59523809523809523</v>
-      </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="28" t="e">
+        <f>(G57+H57*0.5)/(G57+H57+I57+2*J57)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M57" s="10">
+        <v>6</v>
+      </c>
+      <c r="N57" s="10">
+        <v>6</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="28">
         <f>(M57+O57)/(M57+N57+O57+P57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R57" s="30" t="e">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="R57" s="30">
         <f>L57*0.66+Q57*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.29647058823529415</v>
+      </c>
+      <c r="S57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -3956,27 +4275,62 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1">
+        <v>35</v>
+      </c>
       <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+      <c r="K58" s="6">
+        <f>(G58+H58)/(G58+H58+I58+J58)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L58" s="35">
+        <f>(G58+H58*0.5)/(G58+H58+I58+2*J58)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M58" s="10">
         <v>9</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="35"/>
-      <c r="Q58" s="28" t="e">
+      <c r="N58" s="10">
+        <v>2</v>
+      </c>
+      <c r="O58" s="10">
+        <v>1</v>
+      </c>
+      <c r="P58" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="28">
         <f>(M58+O58)/(M58+N58+O58+P58)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R58" s="30" t="e">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="R58" s="30">
         <f>L58*0.66+Q58*0.33</f>
-        <v>#DIV/0!</v>
+        <v>0.22458333333333336</v>
+      </c>
+      <c r="S58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -3984,572 +4338,803 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
-      <c r="D59" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E59" s="3"/>
+      <c r="D59" s="1">
+        <v>5.8</v>
+      </c>
       <c r="F59" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="35"/>
-      <c r="Q59" s="28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R59" s="30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="30"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
+      <c r="B60" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="C60">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E60" s="3"/>
+      <c r="D60" s="1">
+        <v>5.8</v>
+      </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="35"/>
-      <c r="Q60" s="28" t="e">
-        <f>(M60+O60)/(M60+N60+O60+P60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R60" s="30" t="e">
-        <f>L60*0.66+Q60*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="30"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C61">
         <v>7</v>
       </c>
-      <c r="D61" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E61" s="3"/>
+      <c r="D61" s="1">
+        <v>5.8</v>
+      </c>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="35"/>
-      <c r="Q61" s="28" t="e">
-        <f>(M61+O61)/(M61+N61+O61+P61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R61" s="30" t="e">
-        <f>L61*0.66+Q61*0.33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="30"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C62">
-        <v>70</v>
-      </c>
-      <c r="D62" s="3">
-        <v>48</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.48</v>
+        <v>7</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5.8</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62">
-        <v>8</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <f>(G62+H62)/(G62+H62+I62+J62)</f>
-        <v>0.8</v>
-      </c>
-      <c r="L62" s="35">
-        <f>(G62+H62*0.5)/(G62+H62+I62+J62)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M62" s="8">
-        <v>20</v>
-      </c>
-      <c r="N62" s="8">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8">
-        <v>20</v>
-      </c>
-      <c r="P62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="28">
-        <f>(M62+O62)/(M62+N62+O62+P62)</f>
-        <v>1</v>
-      </c>
-      <c r="R62" s="30">
-        <f>L62*0.66+Q62*0.33</f>
-        <v>0.8580000000000001</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K62" s="6"/>
+      <c r="L62" s="35"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="30"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D63" s="3">
-        <v>48</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.48</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="6">
         <f>(G63+H63)/(G63+H63+I63+J63)</f>
-        <v>0.80769230769230771</v>
+        <v>1</v>
       </c>
       <c r="L63" s="35">
-        <f>(G63+H63*0.5)/(G63+H63+I63+J63)</f>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="M63" s="8">
-        <v>20</v>
-      </c>
-      <c r="N63" s="10">
-        <v>3</v>
-      </c>
-      <c r="O63" s="8">
-        <v>19</v>
-      </c>
-      <c r="P63" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="39">
-        <f>(M63+O63)/(M63+N63+O63+P63)</f>
-        <v>0.90697674418604646</v>
-      </c>
-      <c r="R63" s="34">
-        <f>L63*0.66+Q63*0.33</f>
-        <v>0.83237924865831847</v>
-      </c>
+        <f>(G63+H63*0.5)/(G63+H63+I63+2*J63)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="30"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>72</v>
+      <c r="B64" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="C64">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D64" s="3">
-        <v>48</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.48</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="58">
         <f>(G64+H64)/(G64+H64+I64+J64)</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L64" s="35">
-        <f>(G64+H64*0.5)/(G64+H64+I64+J64)</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="M64" s="8">
-        <v>18</v>
-      </c>
-      <c r="N64" s="8">
-        <v>3</v>
-      </c>
-      <c r="O64" s="8">
-        <v>15</v>
-      </c>
-      <c r="P64" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q64" s="28">
-        <f>(M64+O64)/(M64+N64+O64+P64)</f>
-        <v>0.80487804878048785</v>
-      </c>
-      <c r="R64" s="30">
-        <f>L64*0.66+Q64*0.33</f>
-        <v>0.78418118466898956</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>1</v>
+      </c>
+      <c r="L64" s="38">
+        <f>(G64+H64*0.5)/(G64+H64+I64+2*J64)</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="30"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C65">
-        <v>104</v>
-      </c>
-      <c r="D65" s="1">
-        <v>48</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="F65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>18</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="7">
+        <v>10</v>
+      </c>
+      <c r="H65" s="7">
+        <v>4</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7">
         <v>1</v>
       </c>
       <c r="K65" s="6">
         <f>(G65+H65)/(G65+H65+I65+J65)</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L65" s="35">
-        <f>(G65+H65*0.5)/(G65+H65+I65+J65)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="M65" s="10">
-        <v>9</v>
-      </c>
-      <c r="N65" s="10">
-        <v>11</v>
-      </c>
-      <c r="O65" s="10">
-        <v>19</v>
-      </c>
-      <c r="P65" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="28">
-        <f>(M65+O65)/(M65+N65+O65+P65)</f>
-        <v>0.7</v>
-      </c>
-      <c r="R65" s="30">
-        <f>L65*0.66+Q65*0.33</f>
-        <v>0.79671428571428571</v>
-      </c>
-      <c r="S65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <f>(G65+H65*0.5)/(G65+H65+I65+2*J65)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="30"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>104</v>
-      </c>
-      <c r="D66" s="1">
-        <v>48</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.21</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K66" s="6">
         <f>(G66+H66)/(G66+H66+I66+J66)</f>
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L66" s="35">
-        <f>(G66+H66*0.5)/(G66+H66+I66+J66)</f>
-        <v>0.75</v>
-      </c>
-      <c r="M66" s="10">
-        <v>2</v>
-      </c>
-      <c r="N66" s="10">
-        <v>7</v>
-      </c>
-      <c r="O66" s="10">
-        <v>10</v>
-      </c>
-      <c r="P66" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q66" s="28">
-        <f>(M66+O66)/(M66+N66+O66+P66)</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="R66" s="30">
-        <f>L66*0.66+Q66*0.33</f>
-        <v>0.6835714285714285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <f>(G66+H66*0.5)/(G66+H66+I66+2*J66)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="30"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3">
-        <v>48</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E67" s="3"/>
       <c r="F67" t="s">
         <v>9</v>
       </c>
-      <c r="G67">
-        <v>8</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <f>(G67+H67)/(G67+H67+I67+J67)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="L67" s="35">
-        <f>(G67+H67*0.5)/(G67+H67+I67+J67)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M67" s="10">
-        <v>6</v>
-      </c>
-      <c r="N67" s="10">
-        <v>0</v>
-      </c>
-      <c r="O67" s="10">
-        <v>5</v>
-      </c>
-      <c r="P67" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="28">
-        <f>(M67+O67)/(M67+N67+O67+P67)</f>
-        <v>1</v>
-      </c>
-      <c r="R67" s="30">
-        <f>L67*0.66+Q67*0.33</f>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="K67" s="6"/>
+      <c r="L67" s="35"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="30"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>71</v>
+      <c r="B68" s="55" t="s">
+        <v>37</v>
       </c>
       <c r="C68">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3">
-        <v>48</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="4">
-        <v>24</v>
-      </c>
-      <c r="H68" s="4">
-        <v>2</v>
-      </c>
-      <c r="I68" s="4">
-        <v>5</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="6">
-        <f>(G68+H68)/(G68+H68+I68+J68)</f>
-        <v>0.8125</v>
-      </c>
-      <c r="L68" s="35">
-        <f>(G68+H68*0.5)/(G68+H68+I68+J68)</f>
-        <v>0.78125</v>
-      </c>
-      <c r="M68" s="55">
-        <v>20</v>
-      </c>
-      <c r="N68" s="55">
-        <v>0</v>
-      </c>
-      <c r="O68" s="10">
-        <v>20</v>
-      </c>
-      <c r="P68" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="32">
-        <f>(M68+O68)/(M68+N68+O68+P68)</f>
-        <v>1</v>
-      </c>
-      <c r="R68" s="33">
-        <f>L68*0.66+Q68*0.33</f>
-        <v>0.84562500000000007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="K68" s="6"/>
+      <c r="L68" s="35"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="30"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D69" s="3">
-        <v>48</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" t="s">
         <v>4</v>
       </c>
-      <c r="G69">
+      <c r="K69" s="6"/>
+      <c r="L69" s="35"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="30"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="35"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="30"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3">
+        <v>48</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <f>(G71+H71)/(G71+H71+I71+J71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L71" s="35">
+        <f>(G71+H71*0.5)/(G71+H71+I71+2*J71)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M71" s="8">
+        <v>20</v>
+      </c>
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
+      <c r="O71" s="8">
+        <v>20</v>
+      </c>
+      <c r="P71" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="28">
+        <f>(M71+O71)/(M71+N71+O71+P71)</f>
+        <v>1</v>
+      </c>
+      <c r="R71" s="30">
+        <f>L71*0.66+Q71*0.33</f>
+        <v>0.8580000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72" s="3">
+        <v>48</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>21</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <f>(G72+H72)/(G72+H72+I72+J72)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="L72" s="35">
+        <f>(G72+H72*0.5)/(G72+H72+I72+2*J72)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="M72" s="8">
+        <v>20</v>
+      </c>
+      <c r="N72" s="10">
+        <v>3</v>
+      </c>
+      <c r="O72" s="8">
+        <v>19</v>
+      </c>
+      <c r="P72" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="39">
+        <f>(M72+O72)/(M72+N72+O72+P72)</f>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="R72" s="34">
+        <f>L72*0.66+Q72*0.33</f>
+        <v>0.83237924865831847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73" s="3">
+        <v>48</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <f>(G73+H73)/(G73+H73+I73+J73)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L73" s="35">
+        <f>(G73+H73*0.5)/(G73+H73+I73+2*J73)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="M73" s="8">
+        <v>18</v>
+      </c>
+      <c r="N73" s="8">
+        <v>3</v>
+      </c>
+      <c r="O73" s="8">
+        <v>15</v>
+      </c>
+      <c r="P73" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="28">
+        <f>(M73+O73)/(M73+N73+O73+P73)</f>
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="R73" s="30">
+        <f>L73*0.66+Q73*0.33</f>
+        <v>0.78418118466898956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74">
+        <v>70</v>
+      </c>
+      <c r="D74" s="3">
+        <v>48</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <f>(G74+H74)/(G74+H74+I74+J74)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L74" s="35">
+        <f>(G74+H74*0.5)/(G74+H74+I74+2*J74)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M74" s="10">
         <v>6</v>
       </c>
-      <c r="H69" s="4">
-        <v>0</v>
-      </c>
-      <c r="I69">
+      <c r="N74" s="10">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10">
+        <v>5</v>
+      </c>
+      <c r="P74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="28">
+        <f>(M74+O74)/(M74+N74+O74+P74)</f>
+        <v>1</v>
+      </c>
+      <c r="R74" s="30">
+        <f>L74*0.66+Q74*0.33</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <v>70</v>
+      </c>
+      <c r="D75" s="3">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
+        <v>24</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="4">
+        <v>5</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6">
+        <f>(G75+H75)/(G75+H75+I75+J75)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="L75" s="35">
+        <f>(G75+H75*0.5)/(G75+H75+I75+2*J75)</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="M75" s="54">
+        <v>20</v>
+      </c>
+      <c r="N75" s="54">
+        <v>0</v>
+      </c>
+      <c r="O75" s="10">
+        <v>20</v>
+      </c>
+      <c r="P75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="32">
+        <f>(M75+O75)/(M75+N75+O75+P75)</f>
+        <v>1</v>
+      </c>
+      <c r="R75" s="33">
+        <f>L75*0.66+Q75*0.33</f>
+        <v>0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="D76" s="3">
+        <v>48</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
         <v>4</v>
       </c>
-      <c r="J69">
-        <v>3</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" ref="K68:K69" si="6">(G69+H69)/(G69+H69+I69+J69)</f>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76" s="6">
+        <f>(G76+H76)/(G76+H76+I76+J76)</f>
         <v>0.46153846153846156</v>
       </c>
-      <c r="L69" s="35">
-        <f t="shared" ref="L68:L69" si="7">(G69+H69*0.5)/(G69+H69+I69+J69)</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="M69" s="10">
-        <v>3</v>
-      </c>
-      <c r="N69" s="10">
-        <v>0</v>
-      </c>
-      <c r="O69" s="10">
-        <v>3</v>
-      </c>
-      <c r="P69" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="28">
-        <f t="shared" ref="Q68:Q69" si="8">(M69+O69)/(M69+N69+O69+P69)</f>
-        <v>1</v>
-      </c>
-      <c r="R69" s="30">
-        <f t="shared" ref="R68:R69" si="9">L69*0.66+Q69*0.33</f>
-        <v>0.63461538461538458</v>
+      <c r="L76" s="35">
+        <f>(G76+H76*0.5)/(G76+H76+I76+2*J76)</f>
+        <v>0.375</v>
+      </c>
+      <c r="M76" s="10">
+        <v>3</v>
+      </c>
+      <c r="N76" s="10">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10">
+        <v>3</v>
+      </c>
+      <c r="P76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="28">
+        <f>(M76+O76)/(M76+N76+O76+P76)</f>
+        <v>1</v>
+      </c>
+      <c r="R76" s="30">
+        <f>L76*0.66+Q76*0.33</f>
+        <v>0.57750000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>70</v>
+      </c>
+      <c r="D77" s="1">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="4">
+        <v>4</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4">
+        <v>2</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="6">
+        <f>(G77+H77)/(G77+H77+I77+J77)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L77" s="35">
+        <f>(G77+H77*0.5)/(G77+H77+I77+2*J77)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="D78" s="1">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="57">
+        <v>2</v>
+      </c>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57">
+        <v>1</v>
+      </c>
+      <c r="J78" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79" s="1">
+        <v>40</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S61">
+  <autoFilter ref="B1:S79">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4558,295 +5143,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="50" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="J1" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0.81</v>
       </c>
       <c r="G2" s="51">
         <v>0.81</v>
       </c>
-      <c r="H2" s="51">
-        <v>0.78</v>
+      <c r="H2">
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L2" s="51">
+        <v>0.91</v>
       </c>
       <c r="M2" s="52">
-        <v>1</v>
-      </c>
-      <c r="N2" s="52">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0.81</v>
       </c>
       <c r="G3" s="51">
-        <v>0.81</v>
-      </c>
-      <c r="H3" s="51">
-        <v>0.81</v>
+        <v>0.76</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
       <c r="K3">
-        <v>19</v>
-      </c>
-      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
         <v>1</v>
       </c>
       <c r="M3" s="51">
-        <v>0.91</v>
-      </c>
-      <c r="N3" s="51">
         <v>0.83</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.86</v>
       </c>
       <c r="G4" s="51">
-        <v>0.86</v>
-      </c>
-      <c r="H4" s="52">
-        <v>0.86</v>
+        <v>0.82</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0.7</v>
       </c>
       <c r="M4" s="51">
-        <v>0.7</v>
-      </c>
-      <c r="N4" s="51">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
         <v>0.93</v>
       </c>
-      <c r="H5" s="51">
+      <c r="G5" s="52">
         <v>0.83</v>
       </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
       <c r="I5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
         <v>20</v>
       </c>
+      <c r="L5" s="51">
+        <v>0.3</v>
+      </c>
       <c r="M5" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="N5" s="51">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="H6" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
+      <c r="L6" s="51">
+        <v>0.75</v>
       </c>
       <c r="M6" s="51">
-        <v>0.75</v>
-      </c>
-      <c r="N6" s="51">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4857,389 +5423,485 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0.57999999999999996</v>
       </c>
       <c r="G7" s="51">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H7" s="51">
-        <v>0.5</v>
+        <v>0.48</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
       </c>
       <c r="I7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="L7" s="51">
+        <v>0.9</v>
       </c>
       <c r="M7" s="51">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="51">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
         <v>0.97</v>
       </c>
-      <c r="H8" s="51">
+      <c r="G8" s="51">
         <v>0.82</v>
       </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
       <c r="I8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
         <v>20</v>
       </c>
+      <c r="L8" s="51">
+        <v>0.2</v>
+      </c>
       <c r="M8" s="51">
-        <v>0.2</v>
-      </c>
-      <c r="N8" s="51">
         <v>0.61</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0.7</v>
       </c>
       <c r="G9" s="51">
-        <v>0.75</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0.75</v>
+        <v>0.67</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="L9" s="51">
+        <v>0.5</v>
       </c>
       <c r="M9" s="51">
-        <v>0.33</v>
-      </c>
-      <c r="N9" s="51">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.75</v>
       </c>
       <c r="G10" s="51">
-        <v>0.62</v>
-      </c>
-      <c r="H10" s="51">
-        <v>0.62</v>
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="L10" s="51">
+        <v>0.33</v>
       </c>
       <c r="M10" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="51">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0.72</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="51">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="51">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H11" s="51">
-        <v>0.54</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11" s="51">
-        <v>0.43</v>
-      </c>
-      <c r="N11" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0.62</v>
       </c>
       <c r="G12" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="51">
-        <v>0.4</v>
+        <v>0.59</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="L12" s="51">
+        <v>0.5</v>
       </c>
       <c r="M12" s="51">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="51">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.68</v>
       </c>
       <c r="G13" s="51">
-        <v>0.47</v>
-      </c>
-      <c r="H13" s="51">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13">
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="L13" s="51">
+        <v>0.5</v>
       </c>
       <c r="M13" s="51">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N13" s="51">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.47</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0.47</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="51">
-        <v>0.52</v>
-      </c>
-      <c r="H14" s="51">
-        <v>0.52</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
       <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="L14" s="51">
+        <v>0.55000000000000004</v>
       </c>
       <c r="M14" s="51">
-        <v>0.4</v>
-      </c>
-      <c r="N14" s="51">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0.61</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.53</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="51">
+        <v>0.36</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="51">
+        <v>0.7</v>
+      </c>
+      <c r="M16" s="51">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="51">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G17" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17" s="51">
+        <v>0.43</v>
+      </c>
+      <c r="M17" s="51">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="51">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="51">
         <v>0.36</v>
       </c>
-      <c r="H15" s="51">
-        <v>0.36</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="G18" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>20</v>
       </c>
-      <c r="K15">
+      <c r="J18">
         <v>13</v>
       </c>
-      <c r="L15">
+      <c r="K18">
         <v>7</v>
       </c>
-      <c r="M15" s="51">
+      <c r="L18" s="51">
         <v>0.33</v>
       </c>
-      <c r="N15" s="51">
-        <v>0.34</v>
+      <c r="M18" s="51">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -5259,42 +5921,42 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5349,12 +6011,12 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1">
       <c r="B4" t="s">

--- a/русский-рейтинг-llm-в-роулплее.xlsx
+++ b/русский-рейтинг-llm-в-роулплее.xlsx
@@ -13,14 +13,14 @@
     <sheet name="фикс токенизатора" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$S$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'русский-рейтинг-llm-в-роулплее-'!$B$1:$S$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
   <si>
     <t>temp</t>
   </si>
@@ -266,6 +266,21 @@
   </si>
   <si>
     <t>saiga_llama3_kto_8b-q5_0</t>
+  </si>
+  <si>
+    <t>ggml-c4ai-command-r-plus-q3_k_m</t>
+  </si>
+  <si>
+    <t>min_p</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>Phi-3-medium-4k-instruct-Q5_K_S</t>
   </si>
 </sst>
 </file>
@@ -613,14 +628,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="35">
-        <f t="shared" ref="L2:L8" si="1">(G2+H2*0.5)/(G2+H2+I2+2*J2)</f>
+        <f t="shared" ref="L2" si="1">(G2+H2*0.5)/(G2+H2+I2+2*J2)</f>
         <v>0.92105263157894735</v>
       </c>
       <c r="M2" s="8">
@@ -3888,10 +3903,10 @@
       <c r="C51" s="4">
         <v>35</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="59">
         <v>15</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="59">
         <v>2.9</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -4091,66 +4106,35 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>35</v>
+      <c r="B55" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="C55">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="D55" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1">
-        <v>35</v>
+        <v>0.6</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="4">
         <v>4</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4">
-        <v>5</v>
-      </c>
-      <c r="K55" s="6">
-        <f>(G55+H55)/(G55+H55+I55+J55)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L55" s="35">
-        <f>(G55+H55*0.5)/(G55+H55+I55+2*J55)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="M55" s="10">
-        <v>19</v>
-      </c>
-      <c r="N55" s="10">
-        <v>1</v>
-      </c>
-      <c r="O55" s="10">
-        <v>0</v>
-      </c>
-      <c r="P55" s="10">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="28">
-        <f>(M55+O55)/(M55+N55+O55+P55)</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="R55" s="30">
-        <f>L55*0.66+Q55*0.33</f>
-        <v>0.34532142857142856</v>
-      </c>
-      <c r="S55" t="s">
-        <v>10</v>
-      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="30"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56">
@@ -4163,27 +4147,23 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G56" s="4">
-        <v>11</v>
-      </c>
-      <c r="H56" s="4">
-        <v>2</v>
-      </c>
-      <c r="I56" s="4">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" s="6">
         <f>(G56+H56)/(G56+H56+I56+J56)</f>
-        <v>0.68421052631578949</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="L56" s="35">
         <f>(G56+H56*0.5)/(G56+H56+I56+2*J56)</f>
-        <v>0.54545454545454541</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M56" s="10">
         <v>19</v>
@@ -4192,18 +4172,18 @@
         <v>1</v>
       </c>
       <c r="O56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="28">
         <f>(M56+O56)/(M56+N56+O56+P56)</f>
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="R56" s="30">
         <f>L56*0.66+Q56*0.33</f>
-        <v>0.52500000000000002</v>
+        <v>0.34532142857142856</v>
       </c>
       <c r="S56" t="s">
         <v>10</v>
@@ -4213,7 +4193,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C57">
@@ -4226,45 +4206,47 @@
         <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" s="4">
-        <v>3</v>
-      </c>
-      <c r="H57" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2</v>
+      </c>
       <c r="I57" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="6">
         <f>(G57+H57)/(G57+H57+I57+J57)</f>
-        <v>0.3</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="L57" s="35">
         <f>(G57+H57*0.5)/(G57+H57+I57+2*J57)</f>
-        <v>0.27272727272727271</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M57" s="10">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N57" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O57" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="10">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="28">
         <f>(M57+O57)/(M57+N57+O57+P57)</f>
-        <v>0.35294117647058826</v>
+        <v>0.5</v>
       </c>
       <c r="R57" s="30">
         <f>L57*0.66+Q57*0.33</f>
-        <v>0.29647058823529415</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="S57" t="s">
         <v>10</v>
@@ -4287,47 +4269,45 @@
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H58" s="4"/>
       <c r="I58" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J58" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K58" s="6">
         <f>(G58+H58)/(G58+H58+I58+J58)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L58" s="35">
         <f>(G58+H58*0.5)/(G58+H58+I58+2*J58)</f>
-        <v>6.25E-2</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="M58" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N58" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O58" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q58" s="28">
         <f>(M58+O58)/(M58+N58+O58+P58)</f>
-        <v>0.55555555555555558</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="R58" s="30">
         <f>L58*0.66+Q58*0.33</f>
-        <v>0.22458333333333336</v>
+        <v>0.29647058823529415</v>
       </c>
       <c r="S58" t="s">
         <v>10</v>
@@ -4338,27 +4318,69 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1">
-        <v>5.8</v>
+        <v>6</v>
+      </c>
+      <c r="E59" s="1">
+        <v>35</v>
       </c>
       <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <v>3</v>
+      </c>
+      <c r="K59" s="6">
+        <f>(G59+H59)/(G59+H59+I59+J59)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="35">
+        <f>(G59+H59*0.5)/(G59+H59+I59+2*J59)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="M59" s="10">
         <v>9</v>
       </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="35"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="30"/>
+      <c r="N59" s="10">
+        <v>2</v>
+      </c>
+      <c r="O59" s="10">
+        <v>1</v>
+      </c>
+      <c r="P59" s="10">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="28">
+        <f>(M59+O59)/(M59+N59+O59+P59)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="R59" s="30">
+        <f>L59*0.66+Q59*0.33</f>
+        <v>0.22458333333333336</v>
+      </c>
+      <c r="S59" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" t="s">
         <v>36</v>
       </c>
       <c r="C60">
@@ -4368,7 +4390,7 @@
         <v>5.8</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="35"/>
@@ -4379,7 +4401,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C61">
@@ -4389,7 +4411,7 @@
         <v>5.8</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="35"/>
@@ -4410,7 +4432,7 @@
         <v>5.8</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="35"/>
@@ -4422,42 +4444,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
-      <c r="D63" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="E63" s="3"/>
+      <c r="D63" s="1">
+        <v>5.8</v>
+      </c>
       <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63">
-        <v>17</v>
-      </c>
-      <c r="H63">
-        <v>3</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <f>(G63+H63)/(G63+H63+I63+J63)</f>
-        <v>1</v>
-      </c>
-      <c r="L63" s="35">
-        <f>(G63+H63*0.5)/(G63+H63+I63+2*J63)</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="35"/>
       <c r="Q63" s="28"/>
       <c r="R63" s="30"/>
     </row>
@@ -4465,7 +4464,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
       <c r="C64">
@@ -4476,10 +4475,10 @@
       </c>
       <c r="E64" s="3"/>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -4490,13 +4489,13 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="58">
+      <c r="K64" s="6">
         <f>(G64+H64)/(G64+H64+I64+J64)</f>
         <v>1</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="35">
         <f>(G64+H64*0.5)/(G64+H64+I64+2*J64)</f>
-        <v>0.92105263157894735</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -4509,7 +4508,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="55" t="s">
         <v>59</v>
       </c>
       <c r="C65">
@@ -4519,28 +4518,28 @@
         <v>5.6</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="7">
-        <v>10</v>
-      </c>
-      <c r="H65" s="7">
-        <v>4</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1</v>
-      </c>
-      <c r="J65" s="7">
-        <v>1</v>
-      </c>
-      <c r="K65" s="6">
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="58">
         <f>(G65+H65)/(G65+H65+I65+J65)</f>
-        <v>0.875</v>
-      </c>
-      <c r="L65" s="35">
+        <v>1</v>
+      </c>
+      <c r="L65" s="38">
         <f>(G65+H65*0.5)/(G65+H65+I65+2*J65)</f>
-        <v>0.70588235294117652</v>
+        <v>0.92105263157894735</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -4563,28 +4562,28 @@
         <v>5.6</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="7">
         <v>10</v>
       </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-      <c r="J66">
+      <c r="H66" s="7">
         <v>4</v>
+      </c>
+      <c r="I66" s="7">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1</v>
       </c>
       <c r="K66" s="6">
         <f>(G66+H66)/(G66+H66+I66+J66)</f>
-        <v>0.7142857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="L66" s="35">
         <f>(G66+H66*0.5)/(G66+H66+I66+2*J66)</f>
-        <v>0.5</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -4598,7 +4597,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -4608,10 +4607,32 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67" s="6">
+        <f>(G67+H67)/(G67+H67+I67+J67)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L67" s="35">
+        <f>(G67+H67*0.5)/(G67+H67+I67+2*J67)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
       <c r="Q67" s="28"/>
       <c r="R67" s="30"/>
     </row>
@@ -4619,7 +4640,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" t="s">
         <v>37</v>
       </c>
       <c r="C68">
@@ -4630,7 +4651,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="35"/>
@@ -4641,7 +4662,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C69">
@@ -4652,7 +4673,7 @@
       </c>
       <c r="E69" s="3"/>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K69" s="6"/>
       <c r="L69" s="35"/>
@@ -4674,7 +4695,7 @@
       </c>
       <c r="E70" s="3"/>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="35"/>
@@ -4686,66 +4707,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D71" s="3">
-        <v>48</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.48</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="E71" s="3"/>
       <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <f>(G71+H71)/(G71+H71+I71+J71)</f>
-        <v>0.8</v>
-      </c>
-      <c r="L71" s="35">
-        <f>(G71+H71*0.5)/(G71+H71+I71+2*J71)</f>
-        <v>0.8</v>
-      </c>
-      <c r="M71" s="8">
-        <v>20</v>
-      </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
-      <c r="O71" s="8">
-        <v>20</v>
-      </c>
-      <c r="P71" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="28">
-        <f>(M71+O71)/(M71+N71+O71+P71)</f>
-        <v>1</v>
-      </c>
-      <c r="R71" s="30">
-        <f>L71*0.66+Q71*0.33</f>
-        <v>0.8580000000000001</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="35"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="30"/>
     </row>
     <row r="72" spans="1:18">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
       <c r="C72">
@@ -4758,54 +4741,54 @@
         <v>0.48</v>
       </c>
       <c r="F72" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G72">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="6">
         <f>(G72+H72)/(G72+H72+I72+J72)</f>
-        <v>0.80769230769230771</v>
+        <v>0.8</v>
       </c>
       <c r="L72" s="35">
         <f>(G72+H72*0.5)/(G72+H72+I72+2*J72)</f>
-        <v>0.80769230769230771</v>
+        <v>0.8</v>
       </c>
       <c r="M72" s="8">
         <v>20</v>
       </c>
-      <c r="N72" s="10">
-        <v>3</v>
+      <c r="N72" s="8">
+        <v>0</v>
       </c>
       <c r="O72" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P72" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="28">
         <f>(M72+O72)/(M72+N72+O72+P72)</f>
-        <v>0.90697674418604646</v>
-      </c>
-      <c r="R72" s="34">
+        <v>1</v>
+      </c>
+      <c r="R72" s="30">
         <f>L72*0.66+Q72*0.33</f>
-        <v>0.83237924865831847</v>
+        <v>0.8580000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="55" t="s">
         <v>68</v>
       </c>
       <c r="C73">
@@ -4818,47 +4801,47 @@
         <v>0.48</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="6">
         <f>(G73+H73)/(G73+H73+I73+J73)</f>
-        <v>0.7857142857142857</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="L73" s="35">
         <f>(G73+H73*0.5)/(G73+H73+I73+2*J73)</f>
-        <v>0.7857142857142857</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="M73" s="8">
-        <v>18</v>
-      </c>
-      <c r="N73" s="8">
+        <v>20</v>
+      </c>
+      <c r="N73" s="10">
         <v>3</v>
       </c>
       <c r="O73" s="8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P73" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q73" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="39">
         <f>(M73+O73)/(M73+N73+O73+P73)</f>
-        <v>0.80487804878048785</v>
-      </c>
-      <c r="R73" s="30">
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="R73" s="34">
         <f>L73*0.66+Q73*0.33</f>
-        <v>0.78418118466898956</v>
+        <v>0.83237924865831847</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4866,7 +4849,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74">
         <v>70</v>
@@ -4874,14 +4857,14 @@
       <c r="D74" s="3">
         <v>48</v>
       </c>
-      <c r="E74" s="1">
-        <v>1</v>
+      <c r="E74" s="3">
+        <v>0.48</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4894,38 +4877,38 @@
       </c>
       <c r="K74" s="6">
         <f>(G74+H74)/(G74+H74+I74+J74)</f>
-        <v>0.72727272727272729</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L74" s="35">
         <f>(G74+H74*0.5)/(G74+H74+I74+2*J74)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M74" s="10">
-        <v>6</v>
-      </c>
-      <c r="N74" s="10">
-        <v>0</v>
-      </c>
-      <c r="O74" s="10">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="M74" s="8">
+        <v>18</v>
+      </c>
+      <c r="N74" s="8">
+        <v>3</v>
+      </c>
+      <c r="O74" s="8">
+        <v>15</v>
+      </c>
+      <c r="P74" s="8">
         <v>5</v>
-      </c>
-      <c r="P74" s="10">
-        <v>0</v>
       </c>
       <c r="Q74" s="28">
         <f>(M74+O74)/(M74+N74+O74+P74)</f>
-        <v>1</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="R74" s="30">
         <f>L74*0.66+Q74*0.33</f>
-        <v>0.81</v>
+        <v>0.78418118466898956</v>
       </c>
     </row>
     <row r="75" spans="1:18">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" t="s">
         <v>67</v>
       </c>
       <c r="C75">
@@ -4938,54 +4921,54 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="4">
-        <v>24</v>
-      </c>
-      <c r="H75" s="4">
-        <v>2</v>
-      </c>
-      <c r="I75" s="4">
-        <v>5</v>
-      </c>
-      <c r="J75" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
       </c>
       <c r="K75" s="6">
         <f>(G75+H75)/(G75+H75+I75+J75)</f>
-        <v>0.8125</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="L75" s="35">
         <f>(G75+H75*0.5)/(G75+H75+I75+2*J75)</f>
-        <v>0.75757575757575757</v>
-      </c>
-      <c r="M75" s="54">
-        <v>20</v>
-      </c>
-      <c r="N75" s="54">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="M75" s="10">
+        <v>6</v>
+      </c>
+      <c r="N75" s="10">
         <v>0</v>
       </c>
       <c r="O75" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P75" s="10">
         <v>0</v>
       </c>
-      <c r="Q75" s="32">
+      <c r="Q75" s="28">
         <f>(M75+O75)/(M75+N75+O75+P75)</f>
         <v>1</v>
       </c>
-      <c r="R75" s="33">
+      <c r="R75" s="30">
         <f>L75*0.66+Q75*0.33</f>
-        <v>0.83000000000000007</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="76" spans="1:18">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="55" t="s">
         <v>67</v>
       </c>
       <c r="C76">
@@ -4998,83 +4981,107 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G76" s="4">
+        <v>24</v>
       </c>
       <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>4</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>5</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
       </c>
       <c r="K76" s="6">
         <f>(G76+H76)/(G76+H76+I76+J76)</f>
-        <v>0.46153846153846156</v>
+        <v>0.8125</v>
       </c>
       <c r="L76" s="35">
         <f>(G76+H76*0.5)/(G76+H76+I76+2*J76)</f>
-        <v>0.375</v>
-      </c>
-      <c r="M76" s="10">
-        <v>3</v>
-      </c>
-      <c r="N76" s="10">
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="M76" s="54">
+        <v>20</v>
+      </c>
+      <c r="N76" s="54">
         <v>0</v>
       </c>
       <c r="O76" s="10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P76" s="10">
         <v>0</v>
       </c>
-      <c r="Q76" s="28">
+      <c r="Q76" s="32">
         <f>(M76+O76)/(M76+N76+O76+P76)</f>
         <v>1</v>
       </c>
-      <c r="R76" s="30">
+      <c r="R76" s="33">
         <f>L76*0.66+Q76*0.33</f>
-        <v>0.57750000000000001</v>
+        <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="77" spans="1:18">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="55" t="s">
-        <v>80</v>
+      <c r="B77" t="s">
+        <v>67</v>
       </c>
       <c r="C77">
         <v>70</v>
       </c>
-      <c r="D77" s="1">
-        <v>21</v>
+      <c r="D77" s="3">
+        <v>48</v>
       </c>
       <c r="E77" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="4">
         <v>4</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4">
-        <v>2</v>
-      </c>
-      <c r="J77" s="4"/>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
       <c r="K77" s="6">
         <f>(G77+H77)/(G77+H77+I77+J77)</f>
-        <v>0.66666666666666663</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="L77" s="35">
         <f>(G77+H77*0.5)/(G77+H77+I77+2*J77)</f>
-        <v>0.66666666666666663</v>
+        <v>0.375</v>
+      </c>
+      <c r="M77" s="10">
+        <v>3</v>
+      </c>
+      <c r="N77" s="10">
+        <v>0</v>
+      </c>
+      <c r="O77" s="10">
+        <v>3</v>
+      </c>
+      <c r="P77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="28">
+        <f>(M77+O77)/(M77+N77+O77+P77)</f>
+        <v>1</v>
+      </c>
+      <c r="R77" s="30">
+        <f>L77*0.66+Q77*0.33</f>
+        <v>0.57750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5082,56 +5089,228 @@
         <v>77</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>70</v>
       </c>
       <c r="D78" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E78" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="57">
+      <c r="G78" s="4">
+        <v>4</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4">
         <v>2</v>
       </c>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57">
-        <v>1</v>
-      </c>
-      <c r="J78" s="57">
-        <v>1</v>
-      </c>
+      <c r="J78" s="4"/>
+      <c r="K78" s="6">
+        <f>(G78+H78)/(G78+H78+I78+J78)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L78" s="35">
+        <f>(G78+H78*0.5)/(G78+H78+I78+2*J78)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="30"/>
     </row>
     <row r="79" spans="1:18">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>70</v>
       </c>
       <c r="D79" s="1">
+        <v>26</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="57">
+        <v>2</v>
+      </c>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57">
+        <v>1</v>
+      </c>
+      <c r="J79" s="57">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6">
+        <f>(G79+H79)/(G79+H79+I79+J79)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L79" s="35">
+        <f>(G79+H79*0.5)/(G79+H79+I79+2*J79)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="30"/>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>70</v>
+      </c>
+      <c r="D80" s="1">
         <v>40</v>
       </c>
-      <c r="E79" s="1">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="35"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="30"/>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>17</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81" s="6">
+        <f>(G81+H81)/(G81+H81+I81+J81)</f>
+        <v>0.85</v>
+      </c>
+      <c r="L81" s="35">
+        <f>(G81+H81*0.5)/(G81+H81+I81+2*J81)</f>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="M81" s="8">
+        <v>13</v>
+      </c>
+      <c r="N81" s="10">
+        <v>7</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0</v>
+      </c>
+      <c r="P81" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q81" s="28">
+        <f>(M81+O81)/(M81+N81+O81+P81)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R81" s="30">
+        <f>L81*0.66+Q81*0.33</f>
+        <v>0.61725000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" ref="K79:K82" si="4">(G82+H82)/(G82+H82+I82+J82)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L82" s="35">
+        <f t="shared" ref="L79:L82" si="5">(G82+H82*0.5)/(G82+H82+I82+2*J82)</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="M82" s="8">
+        <v>12</v>
+      </c>
+      <c r="N82" s="8">
+        <v>8</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0</v>
+      </c>
+      <c r="P82" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="28">
+        <f t="shared" ref="Q82" si="6">(M82+O82)/(M82+N82+O82+P82)</f>
+        <v>0.3</v>
+      </c>
+      <c r="R82" s="30">
+        <f t="shared" ref="R82" si="7">L82*0.66+Q82*0.33</f>
+        <v>0.55471428571428572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:S79">
+  <autoFilter ref="B1:S82">
     <filterColumn colId="1"/>
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
@@ -5146,7 +5325,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5170,7 +5349,7 @@
       <c r="A1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="41" t="s">
@@ -5911,13 +6090,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -5943,45 +6125,62 @@
         <v>65</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6011,12 +6210,12 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1">
       <c r="B4" t="s">

--- a/русский-рейтинг-llm-в-роулплее.xlsx
+++ b/русский-рейтинг-llm-в-роулплее.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>temp</t>
   </si>
@@ -145,9 +145,6 @@
     <t>лог-ok-2</t>
   </si>
   <si>
-    <t>llama.cpp server</t>
-  </si>
-  <si>
     <t>Вопросы:</t>
   </si>
   <si>
@@ -281,6 +278,12 @@
   </si>
   <si>
     <t>Phi-3-medium-4k-instruct-Q5_K_S</t>
+  </si>
+  <si>
+    <t>llama.cpp server + sillyTavern</t>
+  </si>
+  <si>
+    <t>Mistral-7B-Instruct-v0.3-Q6_K</t>
   </si>
 </sst>
 </file>
@@ -940,11 +943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,19 +970,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="50" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>0</v>
@@ -988,40 +991,40 @@
         <v>8</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M1" s="47" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O1" s="47" t="s">
         <v>40</v>
       </c>
       <c r="P1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="41" t="s">
-        <v>53</v>
-      </c>
       <c r="R1" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1029,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1054,11 +1057,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2" si="0">(G2+H2)/(G2+H2+I2+J2)</f>
+        <f t="shared" ref="K2:K33" si="0">(G2+H2)/(G2+H2+I2+J2)</f>
         <v>1</v>
       </c>
       <c r="L2" s="35">
-        <f t="shared" ref="L2" si="1">(G2+H2*0.5)/(G2+H2+I2+2*J2)</f>
+        <f t="shared" ref="L2:L33" si="1">(G2+H2*0.5)/(G2+H2+I2+2*J2)</f>
         <v>0.92105263157894735</v>
       </c>
       <c r="M2" s="8">
@@ -1074,11 +1077,11 @@
         <v>22</v>
       </c>
       <c r="Q2" s="28">
-        <f t="shared" ref="Q2" si="2">(M2+O2)/(M2+N2+O2+P2)</f>
+        <f t="shared" ref="Q2:Q42" si="2">(M2+O2)/(M2+N2+O2+P2)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="R2" s="30">
-        <f t="shared" ref="R2" si="3">L2*0.66+Q2*0.33</f>
+        <f t="shared" ref="R2:R42" si="3">L2*0.66+Q2*0.33</f>
         <v>0.64456140350877189</v>
       </c>
     </row>
@@ -1087,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1145,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1203,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1261,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -1318,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1375,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1432,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1489,7 +1492,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1550,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1611,7 +1614,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1672,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -2217,7 +2220,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2278,7 +2281,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2338,7 +2341,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2398,7 +2401,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -2458,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -3433,7 +3436,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -3472,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <v>35</v>
@@ -3532,7 +3535,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45">
         <v>35</v>
@@ -3587,7 +3590,7 @@
         <v>0.47936842105263155</v>
       </c>
       <c r="S45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3595,7 +3598,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>35</v>
@@ -3655,7 +3658,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47">
         <v>35</v>
@@ -3715,7 +3718,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>35</v>
@@ -3775,7 +3778,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>35</v>
@@ -3830,7 +3833,7 @@
         <v>0.57693103448275862</v>
       </c>
       <c r="S49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -3838,7 +3841,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>35</v>
@@ -3898,7 +3901,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4">
         <v>35</v>
@@ -3938,7 +3941,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>35</v>
@@ -3984,7 +3987,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53">
         <v>104</v>
@@ -4039,7 +4042,7 @@
         <v>0.77100000000000002</v>
       </c>
       <c r="S53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4047,7 +4050,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>104</v>
@@ -4107,7 +4110,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>104</v>
@@ -4465,7 +4468,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -4509,7 +4512,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -4553,7 +4556,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -4597,7 +4600,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -4729,7 +4732,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>70</v>
@@ -4789,7 +4792,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>70</v>
@@ -4849,7 +4852,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74">
         <v>70</v>
@@ -4909,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75">
         <v>70</v>
@@ -4969,7 +4972,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76">
         <v>70</v>
@@ -5029,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C77">
         <v>70</v>
@@ -5089,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>70</v>
@@ -5127,7 +5130,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>70</v>
@@ -5167,7 +5170,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -5194,13 +5197,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>14</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E81" s="1">
         <v>26</v>
@@ -5254,13 +5257,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>14</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1">
         <v>26</v>
@@ -5281,11 +5284,11 @@
         <v>1</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" ref="K79:K82" si="4">(G82+H82)/(G82+H82+I82+J82)</f>
+        <f>(G82+H82)/(G82+H82+I82+J82)</f>
         <v>0.8</v>
       </c>
       <c r="L82" s="35">
-        <f t="shared" ref="L79:L82" si="5">(G82+H82*0.5)/(G82+H82+I82+2*J82)</f>
+        <f>(G82+H82*0.5)/(G82+H82+I82+2*J82)</f>
         <v>0.69047619047619047</v>
       </c>
       <c r="M82" s="8">
@@ -5301,12 +5304,72 @@
         <v>20</v>
       </c>
       <c r="Q82" s="28">
-        <f t="shared" ref="Q82" si="6">(M82+O82)/(M82+N82+O82+P82)</f>
+        <f>(M82+O82)/(M82+N82+O82+P82)</f>
         <v>0.3</v>
       </c>
       <c r="R82" s="30">
-        <f t="shared" ref="R82" si="7">L82*0.66+Q82*0.33</f>
+        <f>L82*0.66+Q82*0.33</f>
         <v>0.55471428571428572</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>11</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f>(G83+H83)/(G83+H83+I83+J83)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="L83" s="35">
+        <f>(G83+H83*0.5)/(G83+H83+I83+2*J83)</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="M83" s="8">
+        <v>4</v>
+      </c>
+      <c r="N83" s="10">
+        <v>16</v>
+      </c>
+      <c r="O83" s="8">
+        <v>16</v>
+      </c>
+      <c r="P83" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="28">
+        <f>(M83+O83)/(M83+N83+O83+P83)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R83" s="30">
+        <f>L83*0.66+Q83*0.33</f>
+        <v>0.51071428571428579</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5410,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>38</v>
@@ -5356,34 +5419,34 @@
         <v>8</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="47" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>40</v>
       </c>
       <c r="K1" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>53</v>
-      </c>
       <c r="M1" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5391,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>21</v>
@@ -5432,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -5473,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>18</v>
@@ -5514,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -5555,7 +5618,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -5637,7 +5700,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -5678,7 +5741,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -5719,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -5760,7 +5823,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -5924,7 +5987,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -6093,7 +6156,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6103,31 +6166,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -6135,27 +6198,27 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
